--- a/day2/lecture3-reading-in-data/data/exercise.xlsx
+++ b/day2/lecture3-reading-in-data/data/exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dean/Desktop/github/id529/lectures/day2/lecture3-reading-in-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4AC99-FE3E-1F4F-B1A3-D96E89EE2472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B74B54-4320-CE4F-808D-8BAE1480FD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30020" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2620" windowWidth="30020" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="713">
   <si>
     <t>Time</t>
   </si>
@@ -99,6 +99,2079 @@
   </si>
   <si>
     <t>Exercise</t>
+  </si>
+  <si>
+    <t>00:19</t>
+  </si>
+  <si>
+    <t>00:28</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>00:41</t>
+  </si>
+  <si>
+    <t>00:44</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t>00:53</t>
+  </si>
+  <si>
+    <t>00:57</t>
+  </si>
+  <si>
+    <t>01:02</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>01:21</t>
+  </si>
+  <si>
+    <t>01:24</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>02:04</t>
+  </si>
+  <si>
+    <t>02:09</t>
+  </si>
+  <si>
+    <t>02:14</t>
+  </si>
+  <si>
+    <t>02:17</t>
+  </si>
+  <si>
+    <t>02:19</t>
+  </si>
+  <si>
+    <t>02:22</t>
+  </si>
+  <si>
+    <t>02:25</t>
+  </si>
+  <si>
+    <t>02:28</t>
+  </si>
+  <si>
+    <t>02:31</t>
+  </si>
+  <si>
+    <t>02:33</t>
+  </si>
+  <si>
+    <t>02:35</t>
+  </si>
+  <si>
+    <t>02:37</t>
+  </si>
+  <si>
+    <t>02:39</t>
+  </si>
+  <si>
+    <t>02:44</t>
+  </si>
+  <si>
+    <t>02:45</t>
+  </si>
+  <si>
+    <t>02:47</t>
+  </si>
+  <si>
+    <t>02:50</t>
+  </si>
+  <si>
+    <t>02:52</t>
+  </si>
+  <si>
+    <t>02:55</t>
+  </si>
+  <si>
+    <t>02:57</t>
+  </si>
+  <si>
+    <t>02:59</t>
+  </si>
+  <si>
+    <t>03:01</t>
+  </si>
+  <si>
+    <t>03:03</t>
+  </si>
+  <si>
+    <t>03:05</t>
+  </si>
+  <si>
+    <t>03:07</t>
+  </si>
+  <si>
+    <t>03:11</t>
+  </si>
+  <si>
+    <t>03:13</t>
+  </si>
+  <si>
+    <t>03:16</t>
+  </si>
+  <si>
+    <t>03:19</t>
+  </si>
+  <si>
+    <t>03:21</t>
+  </si>
+  <si>
+    <t>03:25</t>
+  </si>
+  <si>
+    <t>03:28</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>03:33</t>
+  </si>
+  <si>
+    <t>03:35</t>
+  </si>
+  <si>
+    <t>03:37</t>
+  </si>
+  <si>
+    <t>03:39</t>
+  </si>
+  <si>
+    <t>03:41</t>
+  </si>
+  <si>
+    <t>03:43</t>
+  </si>
+  <si>
+    <t>03:45</t>
+  </si>
+  <si>
+    <t>03:48</t>
+  </si>
+  <si>
+    <t>03:49</t>
+  </si>
+  <si>
+    <t>03:51</t>
+  </si>
+  <si>
+    <t>03:54</t>
+  </si>
+  <si>
+    <t>03:57</t>
+  </si>
+  <si>
+    <t>03:59</t>
+  </si>
+  <si>
+    <t>04:01</t>
+  </si>
+  <si>
+    <t>04:04</t>
+  </si>
+  <si>
+    <t>04:07</t>
+  </si>
+  <si>
+    <t>04:11</t>
+  </si>
+  <si>
+    <t>04:13</t>
+  </si>
+  <si>
+    <t>04:15</t>
+  </si>
+  <si>
+    <t>04:18</t>
+  </si>
+  <si>
+    <t>04:20</t>
+  </si>
+  <si>
+    <t>04:23</t>
+  </si>
+  <si>
+    <t>04:25</t>
+  </si>
+  <si>
+    <t>04:27</t>
+  </si>
+  <si>
+    <t>04:29</t>
+  </si>
+  <si>
+    <t>04:31</t>
+  </si>
+  <si>
+    <t>04:33</t>
+  </si>
+  <si>
+    <t>04:35</t>
+  </si>
+  <si>
+    <t>04:38</t>
+  </si>
+  <si>
+    <t>04:40</t>
+  </si>
+  <si>
+    <t>04:42</t>
+  </si>
+  <si>
+    <t>04:44</t>
+  </si>
+  <si>
+    <t>04:46</t>
+  </si>
+  <si>
+    <t>04:48</t>
+  </si>
+  <si>
+    <t>04:50</t>
+  </si>
+  <si>
+    <t>04:53</t>
+  </si>
+  <si>
+    <t>04:57</t>
+  </si>
+  <si>
+    <t>04:59</t>
+  </si>
+  <si>
+    <t>05:01</t>
+  </si>
+  <si>
+    <t>05:03</t>
+  </si>
+  <si>
+    <t>05:05</t>
+  </si>
+  <si>
+    <t>05:06</t>
+  </si>
+  <si>
+    <t>05:08</t>
+  </si>
+  <si>
+    <t>05:10</t>
+  </si>
+  <si>
+    <t>05:12</t>
+  </si>
+  <si>
+    <t>05:14</t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>05:17</t>
+  </si>
+  <si>
+    <t>05:19</t>
+  </si>
+  <si>
+    <t>05:21</t>
+  </si>
+  <si>
+    <t>05:23</t>
+  </si>
+  <si>
+    <t>05:25</t>
+  </si>
+  <si>
+    <t>05:27</t>
+  </si>
+  <si>
+    <t>05:29</t>
+  </si>
+  <si>
+    <t>05:31</t>
+  </si>
+  <si>
+    <t>05:33</t>
+  </si>
+  <si>
+    <t>05:36</t>
+  </si>
+  <si>
+    <t>05:38</t>
+  </si>
+  <si>
+    <t>05:41</t>
+  </si>
+  <si>
+    <t>05:43</t>
+  </si>
+  <si>
+    <t>05:46</t>
+  </si>
+  <si>
+    <t>05:47</t>
+  </si>
+  <si>
+    <t>05:49</t>
+  </si>
+  <si>
+    <t>05:51</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>05:54</t>
+  </si>
+  <si>
+    <t>05:56</t>
+  </si>
+  <si>
+    <t>05:57</t>
+  </si>
+  <si>
+    <t>05:59</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>06:03</t>
+  </si>
+  <si>
+    <t>06:05</t>
+  </si>
+  <si>
+    <t>06:06</t>
+  </si>
+  <si>
+    <t>06:08</t>
+  </si>
+  <si>
+    <t>06:11</t>
+  </si>
+  <si>
+    <t>06:13</t>
+  </si>
+  <si>
+    <t>06:14</t>
+  </si>
+  <si>
+    <t>06:16</t>
+  </si>
+  <si>
+    <t>06:17</t>
+  </si>
+  <si>
+    <t>06:19</t>
+  </si>
+  <si>
+    <t>06:21</t>
+  </si>
+  <si>
+    <t>06:23</t>
+  </si>
+  <si>
+    <t>06:24</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>06:36</t>
+  </si>
+  <si>
+    <t>06:38</t>
+  </si>
+  <si>
+    <t>06:40</t>
+  </si>
+  <si>
+    <t>06:43</t>
+  </si>
+  <si>
+    <t>06:44</t>
+  </si>
+  <si>
+    <t>06:46</t>
+  </si>
+  <si>
+    <t>06:49</t>
+  </si>
+  <si>
+    <t>06:50</t>
+  </si>
+  <si>
+    <t>06:52</t>
+  </si>
+  <si>
+    <t>06:54</t>
+  </si>
+  <si>
+    <t>06:56</t>
+  </si>
+  <si>
+    <t>06:57</t>
+  </si>
+  <si>
+    <t>06:59</t>
+  </si>
+  <si>
+    <t>07:01</t>
+  </si>
+  <si>
+    <t>07:04</t>
+  </si>
+  <si>
+    <t>07:06</t>
+  </si>
+  <si>
+    <t>07:09</t>
+  </si>
+  <si>
+    <t>07:11</t>
+  </si>
+  <si>
+    <t>07:13</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>07:17</t>
+  </si>
+  <si>
+    <t>07:20</t>
+  </si>
+  <si>
+    <t>07:21</t>
+  </si>
+  <si>
+    <t>07:24</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>07:27</t>
+  </si>
+  <si>
+    <t>07:31</t>
+  </si>
+  <si>
+    <t>07:33</t>
+  </si>
+  <si>
+    <t>07:35</t>
+  </si>
+  <si>
+    <t>07:37</t>
+  </si>
+  <si>
+    <t>07:39</t>
+  </si>
+  <si>
+    <t>07:41</t>
+  </si>
+  <si>
+    <t>07:43</t>
+  </si>
+  <si>
+    <t>07:45</t>
+  </si>
+  <si>
+    <t>07:47</t>
+  </si>
+  <si>
+    <t>07:49</t>
+  </si>
+  <si>
+    <t>07:51</t>
+  </si>
+  <si>
+    <t>07:53</t>
+  </si>
+  <si>
+    <t>07:54</t>
+  </si>
+  <si>
+    <t>07:56</t>
+  </si>
+  <si>
+    <t>07:57</t>
+  </si>
+  <si>
+    <t>07:59</t>
+  </si>
+  <si>
+    <t>08:01</t>
+  </si>
+  <si>
+    <t>08:03</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>08:07</t>
+  </si>
+  <si>
+    <t>08:09</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>08:12</t>
+  </si>
+  <si>
+    <t>08:14</t>
+  </si>
+  <si>
+    <t>08:16</t>
+  </si>
+  <si>
+    <t>08:19</t>
+  </si>
+  <si>
+    <t>08:21</t>
+  </si>
+  <si>
+    <t>08:22</t>
+  </si>
+  <si>
+    <t>08:24</t>
+  </si>
+  <si>
+    <t>08:26</t>
+  </si>
+  <si>
+    <t>08:28</t>
+  </si>
+  <si>
+    <t>08:29</t>
+  </si>
+  <si>
+    <t>08:31</t>
+  </si>
+  <si>
+    <t>08:33</t>
+  </si>
+  <si>
+    <t>08:36</t>
+  </si>
+  <si>
+    <t>08:38</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>08:43</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>08:46</t>
+  </si>
+  <si>
+    <t>08:48</t>
+  </si>
+  <si>
+    <t>08:51</t>
+  </si>
+  <si>
+    <t>08:53</t>
+  </si>
+  <si>
+    <t>08:54</t>
+  </si>
+  <si>
+    <t>08:56</t>
+  </si>
+  <si>
+    <t>08:58</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>09:02</t>
+  </si>
+  <si>
+    <t>09:03</t>
+  </si>
+  <si>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>09:07</t>
+  </si>
+  <si>
+    <t>09:09</t>
+  </si>
+  <si>
+    <t>09:11</t>
+  </si>
+  <si>
+    <t>09:12</t>
+  </si>
+  <si>
+    <t>09:14</t>
+  </si>
+  <si>
+    <t>09:17</t>
+  </si>
+  <si>
+    <t>09:18</t>
+  </si>
+  <si>
+    <t>09:20</t>
+  </si>
+  <si>
+    <t>09:22</t>
+  </si>
+  <si>
+    <t>09:24</t>
+  </si>
+  <si>
+    <t>09:26</t>
+  </si>
+  <si>
+    <t>09:27</t>
+  </si>
+  <si>
+    <t>09:29</t>
+  </si>
+  <si>
+    <t>09:31</t>
+  </si>
+  <si>
+    <t>09:32</t>
+  </si>
+  <si>
+    <t>09:34</t>
+  </si>
+  <si>
+    <t>09:36</t>
+  </si>
+  <si>
+    <t>09:38</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>09:43</t>
+  </si>
+  <si>
+    <t>09:46</t>
+  </si>
+  <si>
+    <t>09:48</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>09:52</t>
+  </si>
+  <si>
+    <t>09:54</t>
+  </si>
+  <si>
+    <t>09:57</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>10:04</t>
+  </si>
+  <si>
+    <t>10:06</t>
+  </si>
+  <si>
+    <t>10:07</t>
+  </si>
+  <si>
+    <t>10:08</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>10:13</t>
+  </si>
+  <si>
+    <t>10:14</t>
+  </si>
+  <si>
+    <t>10:16</t>
+  </si>
+  <si>
+    <t>10:17</t>
+  </si>
+  <si>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>10:21</t>
+  </si>
+  <si>
+    <t>10:22</t>
+  </si>
+  <si>
+    <t>10:24</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>10:27</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>10:32</t>
+  </si>
+  <si>
+    <t>10:34</t>
+  </si>
+  <si>
+    <t>10:36</t>
+  </si>
+  <si>
+    <t>10:38</t>
+  </si>
+  <si>
+    <t>10:41</t>
+  </si>
+  <si>
+    <t>10:43</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>10:47</t>
+  </si>
+  <si>
+    <t>10:48</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>10:52</t>
+  </si>
+  <si>
+    <t>10:54</t>
+  </si>
+  <si>
+    <t>10:56</t>
+  </si>
+  <si>
+    <t>10:57</t>
+  </si>
+  <si>
+    <t>10:59</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>11:07</t>
+  </si>
+  <si>
+    <t>11:09</t>
+  </si>
+  <si>
+    <t>11:10</t>
+  </si>
+  <si>
+    <t>11:12</t>
+  </si>
+  <si>
+    <t>11:14</t>
+  </si>
+  <si>
+    <t>11:16</t>
+  </si>
+  <si>
+    <t>11:18</t>
+  </si>
+  <si>
+    <t>11:19</t>
+  </si>
+  <si>
+    <t>11:21</t>
+  </si>
+  <si>
+    <t>11:22</t>
+  </si>
+  <si>
+    <t>11:25</t>
+  </si>
+  <si>
+    <t>11:28</t>
+  </si>
+  <si>
+    <t>11:31</t>
+  </si>
+  <si>
+    <t>11:33</t>
+  </si>
+  <si>
+    <t>11:35</t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>11:39</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>11:42</t>
+  </si>
+  <si>
+    <t>11:43</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>11:47</t>
+  </si>
+  <si>
+    <t>11:48</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>11:52</t>
+  </si>
+  <si>
+    <t>11:53</t>
+  </si>
+  <si>
+    <t>11:55</t>
+  </si>
+  <si>
+    <t>11:57</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>12:02</t>
+  </si>
+  <si>
+    <t>12:04</t>
+  </si>
+  <si>
+    <t>12:06</t>
+  </si>
+  <si>
+    <t>12:08</t>
+  </si>
+  <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>12:12</t>
+  </si>
+  <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t>12:16</t>
+  </si>
+  <si>
+    <t>12:17</t>
+  </si>
+  <si>
+    <t>12:19</t>
+  </si>
+  <si>
+    <t>12:21</t>
+  </si>
+  <si>
+    <t>12:22</t>
+  </si>
+  <si>
+    <t>12:24</t>
+  </si>
+  <si>
+    <t>12:26</t>
+  </si>
+  <si>
+    <t>12:27</t>
+  </si>
+  <si>
+    <t>12:29</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>12:32</t>
+  </si>
+  <si>
+    <t>12:33</t>
+  </si>
+  <si>
+    <t>12:35</t>
+  </si>
+  <si>
+    <t>12:37</t>
+  </si>
+  <si>
+    <t>12:38</t>
+  </si>
+  <si>
+    <t>12:42</t>
+  </si>
+  <si>
+    <t>12:44</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>12:47</t>
+  </si>
+  <si>
+    <t>12:48</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>12:52</t>
+  </si>
+  <si>
+    <t>12:54</t>
+  </si>
+  <si>
+    <t>12:55</t>
+  </si>
+  <si>
+    <t>12:56</t>
+  </si>
+  <si>
+    <t>12:58</t>
+  </si>
+  <si>
+    <t>12:59</t>
+  </si>
+  <si>
+    <t>13:01</t>
+  </si>
+  <si>
+    <t>13:02</t>
+  </si>
+  <si>
+    <t>13:04</t>
+  </si>
+  <si>
+    <t>13:06</t>
+  </si>
+  <si>
+    <t>13:07</t>
+  </si>
+  <si>
+    <t>13:09</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>13:12</t>
+  </si>
+  <si>
+    <t>13:13</t>
+  </si>
+  <si>
+    <t>13:15</t>
+  </si>
+  <si>
+    <t>13:16</t>
+  </si>
+  <si>
+    <t>13:17</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>13:20</t>
+  </si>
+  <si>
+    <t>13:22</t>
+  </si>
+  <si>
+    <t>13:24</t>
+  </si>
+  <si>
+    <t>13:26</t>
+  </si>
+  <si>
+    <t>13:27</t>
+  </si>
+  <si>
+    <t>13:29</t>
+  </si>
+  <si>
+    <t>13:31</t>
+  </si>
+  <si>
+    <t>13:32</t>
+  </si>
+  <si>
+    <t>13:34</t>
+  </si>
+  <si>
+    <t>13:36</t>
+  </si>
+  <si>
+    <t>13:37</t>
+  </si>
+  <si>
+    <t>13:38</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>13:42</t>
+  </si>
+  <si>
+    <t>13:43</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>13:47</t>
+  </si>
+  <si>
+    <t>13:49</t>
+  </si>
+  <si>
+    <t>13:50</t>
+  </si>
+  <si>
+    <t>13:52</t>
+  </si>
+  <si>
+    <t>13:54</t>
+  </si>
+  <si>
+    <t>13:55</t>
+  </si>
+  <si>
+    <t>13:58</t>
+  </si>
+  <si>
+    <t>13:59</t>
+  </si>
+  <si>
+    <t>14:02</t>
+  </si>
+  <si>
+    <t>14:04</t>
+  </si>
+  <si>
+    <t>14:06</t>
+  </si>
+  <si>
+    <t>14:08</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
+    <t>14:14</t>
+  </si>
+  <si>
+    <t>14:16</t>
+  </si>
+  <si>
+    <t>14:17</t>
+  </si>
+  <si>
+    <t>14:19</t>
+  </si>
+  <si>
+    <t>14:21</t>
+  </si>
+  <si>
+    <t>14:23</t>
+  </si>
+  <si>
+    <t>14:24</t>
+  </si>
+  <si>
+    <t>14:26</t>
+  </si>
+  <si>
+    <t>14:27</t>
+  </si>
+  <si>
+    <t>14:29</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>14:32</t>
+  </si>
+  <si>
+    <t>14:33</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>14:38</t>
+  </si>
+  <si>
+    <t>14:39</t>
+  </si>
+  <si>
+    <t>14:41</t>
+  </si>
+  <si>
+    <t>14:43</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>14:46</t>
+  </si>
+  <si>
+    <t>14:47</t>
+  </si>
+  <si>
+    <t>14:49</t>
+  </si>
+  <si>
+    <t>14:51</t>
+  </si>
+  <si>
+    <t>14:53</t>
+  </si>
+  <si>
+    <t>14:54</t>
+  </si>
+  <si>
+    <t>14:56</t>
+  </si>
+  <si>
+    <t>14:57</t>
+  </si>
+  <si>
+    <t>14:59</t>
+  </si>
+  <si>
+    <t>15:01</t>
+  </si>
+  <si>
+    <t>15:02</t>
+  </si>
+  <si>
+    <t>15:04</t>
+  </si>
+  <si>
+    <t>15:06</t>
+  </si>
+  <si>
+    <t>15:08</t>
+  </si>
+  <si>
+    <t>15:09</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>15:12</t>
+  </si>
+  <si>
+    <t>15:13</t>
+  </si>
+  <si>
+    <t>15:14</t>
+  </si>
+  <si>
+    <t>15:16</t>
+  </si>
+  <si>
+    <t>15:18</t>
+  </si>
+  <si>
+    <t>15:19</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
+    <t>15:22</t>
+  </si>
+  <si>
+    <t>15:24</t>
+  </si>
+  <si>
+    <t>15:25</t>
+  </si>
+  <si>
+    <t>15:27</t>
+  </si>
+  <si>
+    <t>15:28</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>15:31</t>
+  </si>
+  <si>
+    <t>15:34</t>
+  </si>
+  <si>
+    <t>15:36</t>
+  </si>
+  <si>
+    <t>15:37</t>
+  </si>
+  <si>
+    <t>15:39</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>15:42</t>
+  </si>
+  <si>
+    <t>15:43</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>15:47</t>
+  </si>
+  <si>
+    <t>15:49</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>15:52</t>
+  </si>
+  <si>
+    <t>15:55</t>
+  </si>
+  <si>
+    <t>15:56</t>
+  </si>
+  <si>
+    <t>15:58</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>16:01</t>
+  </si>
+  <si>
+    <t>16:03</t>
+  </si>
+  <si>
+    <t>16:06</t>
+  </si>
+  <si>
+    <t>16:07</t>
+  </si>
+  <si>
+    <t>16:09</t>
+  </si>
+  <si>
+    <t>16:10</t>
+  </si>
+  <si>
+    <t>16:12</t>
+  </si>
+  <si>
+    <t>16:13</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>16:17</t>
+  </si>
+  <si>
+    <t>16:18</t>
+  </si>
+  <si>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>16:22</t>
+  </si>
+  <si>
+    <t>16:23</t>
+  </si>
+  <si>
+    <t>16:24</t>
+  </si>
+  <si>
+    <t>16:26</t>
+  </si>
+  <si>
+    <t>16:27</t>
+  </si>
+  <si>
+    <t>16:29</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>16:31</t>
+  </si>
+  <si>
+    <t>16:33</t>
+  </si>
+  <si>
+    <t>16:34</t>
+  </si>
+  <si>
+    <t>16:36</t>
+  </si>
+  <si>
+    <t>16:37</t>
+  </si>
+  <si>
+    <t>16:39</t>
+  </si>
+  <si>
+    <t>16:41</t>
+  </si>
+  <si>
+    <t>16:42</t>
+  </si>
+  <si>
+    <t>16:44</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>16:46</t>
+  </si>
+  <si>
+    <t>16:48</t>
+  </si>
+  <si>
+    <t>16:49</t>
+  </si>
+  <si>
+    <t>16:51</t>
+  </si>
+  <si>
+    <t>16:53</t>
+  </si>
+  <si>
+    <t>16:54</t>
+  </si>
+  <si>
+    <t>16:56</t>
+  </si>
+  <si>
+    <t>16:57</t>
+  </si>
+  <si>
+    <t>16:59</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>17:02</t>
+  </si>
+  <si>
+    <t>17:03</t>
+  </si>
+  <si>
+    <t>17:04</t>
+  </si>
+  <si>
+    <t>17:06</t>
+  </si>
+  <si>
+    <t>17:07</t>
+  </si>
+  <si>
+    <t>17:09</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>17:12</t>
+  </si>
+  <si>
+    <t>17:14</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>17:16</t>
+  </si>
+  <si>
+    <t>17:17</t>
+  </si>
+  <si>
+    <t>17:19</t>
+  </si>
+  <si>
+    <t>17:21</t>
+  </si>
+  <si>
+    <t>17:22</t>
+  </si>
+  <si>
+    <t>17:24</t>
+  </si>
+  <si>
+    <t>17:26</t>
+  </si>
+  <si>
+    <t>17:27</t>
+  </si>
+  <si>
+    <t>17:29</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>17:32</t>
+  </si>
+  <si>
+    <t>17:33</t>
+  </si>
+  <si>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>17:37</t>
+  </si>
+  <si>
+    <t>17:38</t>
+  </si>
+  <si>
+    <t>17:39</t>
+  </si>
+  <si>
+    <t>17:41</t>
+  </si>
+  <si>
+    <t>17:42</t>
+  </si>
+  <si>
+    <t>17:44</t>
+  </si>
+  <si>
+    <t>17:46</t>
+  </si>
+  <si>
+    <t>17:48</t>
+  </si>
+  <si>
+    <t>17:49</t>
+  </si>
+  <si>
+    <t>17:51</t>
+  </si>
+  <si>
+    <t>17:53</t>
+  </si>
+  <si>
+    <t>17:54</t>
+  </si>
+  <si>
+    <t>17:55</t>
+  </si>
+  <si>
+    <t>17:57</t>
+  </si>
+  <si>
+    <t>17:58</t>
+  </si>
+  <si>
+    <t>17:59</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>18:02</t>
+  </si>
+  <si>
+    <t>18:03</t>
+  </si>
+  <si>
+    <t>18:05</t>
+  </si>
+  <si>
+    <t>18:06</t>
+  </si>
+  <si>
+    <t>18:08</t>
+  </si>
+  <si>
+    <t>18:09</t>
+  </si>
+  <si>
+    <t>18:10</t>
+  </si>
+  <si>
+    <t>18:12</t>
+  </si>
+  <si>
+    <t>18:13</t>
+  </si>
+  <si>
+    <t>18:14</t>
+  </si>
+  <si>
+    <t>18:16</t>
+  </si>
+  <si>
+    <t>18:17</t>
+  </si>
+  <si>
+    <t>18:18</t>
+  </si>
+  <si>
+    <t>18:19</t>
+  </si>
+  <si>
+    <t>18:21</t>
+  </si>
+  <si>
+    <t>18:22</t>
+  </si>
+  <si>
+    <t>18:24</t>
+  </si>
+  <si>
+    <t>18:25</t>
+  </si>
+  <si>
+    <t>18:27</t>
+  </si>
+  <si>
+    <t>18:28</t>
+  </si>
+  <si>
+    <t>18:29</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>18:32</t>
+  </si>
+  <si>
+    <t>18:33</t>
+  </si>
+  <si>
+    <t>18:34</t>
+  </si>
+  <si>
+    <t>18:36</t>
+  </si>
+  <si>
+    <t>18:37</t>
+  </si>
+  <si>
+    <t>18:38</t>
+  </si>
+  <si>
+    <t>18:39</t>
+  </si>
+  <si>
+    <t>18:40</t>
+  </si>
+  <si>
+    <t>18:41</t>
+  </si>
+  <si>
+    <t>18:43</t>
+  </si>
+  <si>
+    <t>18:44</t>
+  </si>
+  <si>
+    <t>18:45</t>
+  </si>
+  <si>
+    <t>18:46</t>
+  </si>
+  <si>
+    <t>18:47</t>
+  </si>
+  <si>
+    <t>18:49</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>18:51</t>
+  </si>
+  <si>
+    <t>18:53</t>
+  </si>
+  <si>
+    <t>18:54</t>
+  </si>
+  <si>
+    <t>18:55</t>
+  </si>
+  <si>
+    <t>18:56</t>
+  </si>
+  <si>
+    <t>18:57</t>
+  </si>
+  <si>
+    <t>18:58</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>19:01</t>
+  </si>
+  <si>
+    <t>19:02</t>
+  </si>
+  <si>
+    <t>19:03</t>
+  </si>
+  <si>
+    <t>19:04</t>
+  </si>
+  <si>
+    <t>19:06</t>
+  </si>
+  <si>
+    <t>19:07</t>
+  </si>
+  <si>
+    <t>19:08</t>
+  </si>
+  <si>
+    <t>19:10</t>
+  </si>
+  <si>
+    <t>19:11</t>
+  </si>
+  <si>
+    <t>19:12</t>
+  </si>
+  <si>
+    <t>19:14</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>19:16</t>
+  </si>
+  <si>
+    <t>19:17</t>
+  </si>
+  <si>
+    <t>19:18</t>
+  </si>
+  <si>
+    <t>19:19</t>
+  </si>
+  <si>
+    <t>19:21</t>
+  </si>
+  <si>
+    <t>19:22</t>
+  </si>
+  <si>
+    <t>19:23</t>
+  </si>
+  <si>
+    <t>19:24</t>
+  </si>
+  <si>
+    <t>19:25</t>
+  </si>
+  <si>
+    <t>19:26</t>
+  </si>
+  <si>
+    <t>19:27</t>
+  </si>
+  <si>
+    <t>19:29</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>19:31</t>
+  </si>
+  <si>
+    <t>19:32</t>
+  </si>
+  <si>
+    <t>19:33</t>
+  </si>
+  <si>
+    <t>19:34</t>
+  </si>
+  <si>
+    <t>19:35</t>
+  </si>
+  <si>
+    <t>19:36</t>
+  </si>
+  <si>
+    <t>19:37</t>
+  </si>
+  <si>
+    <t>19:38</t>
+  </si>
+  <si>
+    <t>19:40</t>
+  </si>
+  <si>
+    <t>19:41</t>
+  </si>
+  <si>
+    <t>19:42</t>
+  </si>
+  <si>
+    <t>19:43</t>
+  </si>
+  <si>
+    <t>19:45</t>
+  </si>
+  <si>
+    <t>19:46</t>
+  </si>
+  <si>
+    <t>19:47</t>
+  </si>
+  <si>
+    <t>19:48</t>
+  </si>
+  <si>
+    <t>19:50</t>
+  </si>
+  <si>
+    <t>19:51</t>
+  </si>
+  <si>
+    <t>19:53</t>
+  </si>
+  <si>
+    <t>19:54</t>
+  </si>
+  <si>
+    <t>19:55</t>
+  </si>
+  <si>
+    <t>19:56</t>
+  </si>
+  <si>
+    <t>19:57</t>
+  </si>
+  <si>
+    <t>19:59</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>20:01</t>
+  </si>
+  <si>
+    <t>20:02</t>
+  </si>
+  <si>
+    <t>20:04</t>
+  </si>
+  <si>
+    <t>20:05</t>
+  </si>
+  <si>
+    <t>20:06</t>
+  </si>
+  <si>
+    <t>20:08</t>
+  </si>
+  <si>
+    <t>20:09</t>
+  </si>
+  <si>
+    <t>20:10</t>
+  </si>
+  <si>
+    <t>20:12</t>
+  </si>
+  <si>
+    <t>20:13</t>
+  </si>
+  <si>
+    <t>20:14</t>
+  </si>
+  <si>
+    <t>20:16</t>
+  </si>
+  <si>
+    <t>20:17</t>
+  </si>
+  <si>
+    <t>20:19</t>
+  </si>
+  <si>
+    <t>20:20</t>
+  </si>
+  <si>
+    <t>20:21</t>
+  </si>
+  <si>
+    <t>20:23</t>
+  </si>
+  <si>
+    <t>20:24</t>
+  </si>
+  <si>
+    <t>20:26</t>
+  </si>
+  <si>
+    <t>20:27</t>
+  </si>
+  <si>
+    <t>20:29</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>20:32</t>
+  </si>
+  <si>
+    <t>20:33</t>
+  </si>
+  <si>
+    <t>20:35</t>
+  </si>
+  <si>
+    <t>20:36</t>
+  </si>
+  <si>
+    <t>20:38</t>
+  </si>
+  <si>
+    <t>20:39</t>
+  </si>
+  <si>
+    <t>20:41</t>
+  </si>
+  <si>
+    <t>20:42</t>
+  </si>
+  <si>
+    <t>20:43</t>
+  </si>
+  <si>
+    <t>20:45</t>
+  </si>
+  <si>
+    <t>20:46</t>
+  </si>
+  <si>
+    <t>20:48</t>
+  </si>
+  <si>
+    <t>20:49</t>
+  </si>
+  <si>
+    <t>20:51</t>
+  </si>
+  <si>
+    <t>20:53</t>
+  </si>
+  <si>
+    <t>20:54</t>
+  </si>
+  <si>
+    <t>20:56</t>
+  </si>
+  <si>
+    <t>20:58</t>
+  </si>
+  <si>
+    <t>20:59</t>
+  </si>
+  <si>
+    <t>21:01</t>
+  </si>
+  <si>
+    <t>21:02</t>
+  </si>
+  <si>
+    <t>21:04</t>
+  </si>
+  <si>
+    <t>21:06</t>
+  </si>
+  <si>
+    <t>21:08</t>
+  </si>
+  <si>
+    <t>21:09</t>
+  </si>
+  <si>
+    <t>21:11</t>
+  </si>
+  <si>
+    <t>21:12</t>
+  </si>
+  <si>
+    <t>21:14</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>21:17</t>
+  </si>
+  <si>
+    <t>21:18</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>21:22</t>
+  </si>
+  <si>
+    <t>21:23</t>
+  </si>
+  <si>
+    <t>21:25</t>
+  </si>
+  <si>
+    <t>21:27</t>
+  </si>
+  <si>
+    <t>21:28</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>21:32</t>
+  </si>
+  <si>
+    <t>21:33</t>
+  </si>
+  <si>
+    <t>21:35</t>
+  </si>
+  <si>
+    <t>21:36</t>
+  </si>
+  <si>
+    <t>21:38</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>21:49</t>
+  </si>
+  <si>
+    <t>21:50</t>
   </si>
 </sst>
 </file>
@@ -114,12 +2187,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,10 +2213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N696"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A659" workbookViewId="0">
+      <selection activeCell="A697" sqref="A697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,8 +2655,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>1.3194444444444444E-2</v>
+      <c r="A6" t="s">
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -610,8 +2691,8 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>1.9444444444444445E-2</v>
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -646,8 +2727,8 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>2.0833333333333332E-2</v>
+      <c r="A8" t="s">
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -682,8 +2763,8 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>2.8472222222222222E-2</v>
+      <c r="A9" t="s">
+        <v>25</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -718,8 +2799,8 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>3.0555555555555555E-2</v>
+      <c r="A10" t="s">
+        <v>26</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -754,8 +2835,8 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>3.4722222222222224E-2</v>
+      <c r="A11" t="s">
+        <v>27</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -790,8 +2871,8 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>3.6805555555555557E-2</v>
+      <c r="A12" t="s">
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -826,8 +2907,8 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>3.9583333333333331E-2</v>
+      <c r="A13" t="s">
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -862,8 +2943,8 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>4.3055555555555562E-2</v>
+      <c r="A14" t="s">
+        <v>30</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -898,8 +2979,8 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>4.8611111111111112E-2</v>
+      <c r="A15" t="s">
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -934,8 +3015,8 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>5.2083333333333336E-2</v>
+      <c r="A16" t="s">
+        <v>32</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -970,8 +3051,8 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>5.6250000000000001E-2</v>
+      <c r="A17" t="s">
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1006,8 +3087,8 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>5.8333333333333327E-2</v>
+      <c r="A18" t="s">
+        <v>34</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1042,8 +3123,8 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>6.25E-2</v>
+      <c r="A19" t="s">
+        <v>35</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1078,8 +3159,8 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>8.3333333333333329E-2</v>
+      <c r="A20" t="s">
+        <v>36</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1114,8 +3195,8 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>8.6111111111111124E-2</v>
+      <c r="A21" t="s">
+        <v>37</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1150,8 +3231,8 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>8.9583333333333334E-2</v>
+      <c r="A22" t="s">
+        <v>38</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1186,8 +3267,8 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>9.3055555555555558E-2</v>
+      <c r="A23" t="s">
+        <v>39</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1222,8 +3303,8 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>9.5138888888888884E-2</v>
+      <c r="A24" t="s">
+        <v>40</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1258,8 +3339,8 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>9.6527777777777768E-2</v>
+      <c r="A25" t="s">
+        <v>41</v>
       </c>
       <c r="B25">
         <v>18</v>
@@ -1294,8 +3375,8 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>9.8611111111111108E-2</v>
+      <c r="A26" t="s">
+        <v>42</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -1330,8 +3411,8 @@
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>0.10069444444444443</v>
+      <c r="A27" t="s">
+        <v>43</v>
       </c>
       <c r="B27">
         <v>23</v>
@@ -1366,8 +3447,8 @@
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>0.10277777777777779</v>
+      <c r="A28" t="s">
+        <v>44</v>
       </c>
       <c r="B28">
         <v>22</v>
@@ -1402,8 +3483,8 @@
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>0.10486111111111111</v>
+      <c r="A29" t="s">
+        <v>45</v>
       </c>
       <c r="B29">
         <v>23</v>
@@ -1438,8 +3519,8 @@
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>0.10625</v>
+      <c r="A30" t="s">
+        <v>46</v>
       </c>
       <c r="B30">
         <v>23</v>
@@ -1474,8 +3555,8 @@
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>0.1076388888888889</v>
+      <c r="A31" t="s">
+        <v>47</v>
       </c>
       <c r="B31">
         <v>23</v>
@@ -1510,8 +3591,8 @@
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>0.10902777777777778</v>
+      <c r="A32" t="s">
+        <v>48</v>
       </c>
       <c r="B32">
         <v>23</v>
@@ -1546,8 +3627,8 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>0.11041666666666666</v>
+      <c r="A33" t="s">
+        <v>49</v>
       </c>
       <c r="B33">
         <v>22</v>
@@ -1582,8 +3663,8 @@
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>0.11388888888888889</v>
+      <c r="A34" t="s">
+        <v>50</v>
       </c>
       <c r="B34">
         <v>22</v>
@@ -1618,8 +3699,8 @@
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>0.11458333333333333</v>
+      <c r="A35" t="s">
+        <v>51</v>
       </c>
       <c r="B35">
         <v>23</v>
@@ -1654,8 +3735,8 @@
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>0.11597222222222221</v>
+      <c r="A36" t="s">
+        <v>52</v>
       </c>
       <c r="B36">
         <v>22</v>
@@ -1690,8 +3771,8 @@
       <c r="N36" s="2"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>0.11805555555555557</v>
+      <c r="A37" t="s">
+        <v>53</v>
       </c>
       <c r="B37">
         <v>22</v>
@@ -1726,8 +3807,8 @@
       <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>0.11944444444444445</v>
+      <c r="A38" t="s">
+        <v>54</v>
       </c>
       <c r="B38">
         <v>23</v>
@@ -1762,8 +3843,8 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>0.12152777777777778</v>
+      <c r="A39" t="s">
+        <v>55</v>
       </c>
       <c r="B39">
         <v>22</v>
@@ -1798,8 +3879,8 @@
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>0.12291666666666667</v>
+      <c r="A40" t="s">
+        <v>56</v>
       </c>
       <c r="B40">
         <v>22</v>
@@ -1834,8 +3915,8 @@
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>0.12430555555555556</v>
+      <c r="A41" t="s">
+        <v>57</v>
       </c>
       <c r="B41">
         <v>23</v>
@@ -1870,8 +3951,8 @@
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>0.12569444444444444</v>
+      <c r="A42" t="s">
+        <v>58</v>
       </c>
       <c r="B42">
         <v>23</v>
@@ -1906,8 +3987,8 @@
       <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>0.12708333333333333</v>
+      <c r="A43" t="s">
+        <v>59</v>
       </c>
       <c r="B43">
         <v>23</v>
@@ -1942,8 +4023,8 @@
       <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>0.12847222222222224</v>
+      <c r="A44" t="s">
+        <v>60</v>
       </c>
       <c r="B44">
         <v>22</v>
@@ -1978,8 +4059,8 @@
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>0.12986111111111112</v>
+      <c r="A45" t="s">
+        <v>61</v>
       </c>
       <c r="B45">
         <v>22</v>
@@ -2014,8 +4095,8 @@
       <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>0.13263888888888889</v>
+      <c r="A46" t="s">
+        <v>62</v>
       </c>
       <c r="B46">
         <v>23</v>
@@ -2050,8 +4131,8 @@
       <c r="N46" s="2"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>0.13402777777777777</v>
+      <c r="A47" t="s">
+        <v>63</v>
       </c>
       <c r="B47">
         <v>23</v>
@@ -2086,8 +4167,8 @@
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>0.1361111111111111</v>
+      <c r="A48" t="s">
+        <v>64</v>
       </c>
       <c r="B48">
         <v>23</v>
@@ -2122,8 +4203,8 @@
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>0.13819444444444443</v>
+      <c r="A49" t="s">
+        <v>65</v>
       </c>
       <c r="B49">
         <v>23</v>
@@ -2158,8 +4239,8 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>0.13958333333333334</v>
+      <c r="A50" t="s">
+        <v>66</v>
       </c>
       <c r="B50">
         <v>23</v>
@@ -2194,8 +4275,8 @@
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>0.1423611111111111</v>
+      <c r="A51" t="s">
+        <v>67</v>
       </c>
       <c r="B51">
         <v>22</v>
@@ -2230,8 +4311,8 @@
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>0.14444444444444446</v>
+      <c r="A52" t="s">
+        <v>68</v>
       </c>
       <c r="B52">
         <v>22</v>
@@ -2266,8 +4347,8 @@
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>0.14583333333333334</v>
+      <c r="A53" t="s">
+        <v>69</v>
       </c>
       <c r="B53">
         <v>22</v>
@@ -2302,8 +4383,8 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>0.14791666666666667</v>
+      <c r="A54" t="s">
+        <v>70</v>
       </c>
       <c r="B54">
         <v>22</v>
@@ -2338,8 +4419,8 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>0.14930555555555555</v>
+      <c r="A55" t="s">
+        <v>71</v>
       </c>
       <c r="B55">
         <v>23</v>
@@ -2374,8 +4455,8 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>0.15069444444444444</v>
+      <c r="A56" t="s">
+        <v>72</v>
       </c>
       <c r="B56">
         <v>23</v>
@@ -2410,8 +4491,8 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>0.15208333333333332</v>
+      <c r="A57" t="s">
+        <v>73</v>
       </c>
       <c r="B57">
         <v>22</v>
@@ -2446,8 +4527,8 @@
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>0.15347222222222223</v>
+      <c r="A58" t="s">
+        <v>74</v>
       </c>
       <c r="B58">
         <v>22</v>
@@ -2482,8 +4563,8 @@
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>0.15486111111111112</v>
+      <c r="A59" t="s">
+        <v>75</v>
       </c>
       <c r="B59">
         <v>22</v>
@@ -2518,8 +4599,8 @@
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>0.15625</v>
+      <c r="A60" t="s">
+        <v>76</v>
       </c>
       <c r="B60">
         <v>22</v>
@@ -2554,8 +4635,8 @@
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>0.15833333333333333</v>
+      <c r="A61" t="s">
+        <v>77</v>
       </c>
       <c r="B61">
         <v>22</v>
@@ -2590,8 +4671,8 @@
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>0.15902777777777777</v>
+      <c r="A62" t="s">
+        <v>78</v>
       </c>
       <c r="B62">
         <v>23</v>
@@ -2626,8 +4707,8 @@
       <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>0.16041666666666668</v>
+      <c r="A63" t="s">
+        <v>79</v>
       </c>
       <c r="B63">
         <v>23</v>
@@ -2662,8 +4743,8 @@
       <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>0.16250000000000001</v>
+      <c r="A64" t="s">
+        <v>80</v>
       </c>
       <c r="B64">
         <v>23</v>
@@ -2698,8 +4779,8 @@
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>0.16458333333333333</v>
+      <c r="A65" t="s">
+        <v>81</v>
       </c>
       <c r="B65">
         <v>23</v>
@@ -2734,8 +4815,8 @@
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>0.16597222222222222</v>
+      <c r="A66" t="s">
+        <v>82</v>
       </c>
       <c r="B66">
         <v>23</v>
@@ -2770,8 +4851,8 @@
       <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>0.1673611111111111</v>
+      <c r="A67" t="s">
+        <v>83</v>
       </c>
       <c r="B67">
         <v>23</v>
@@ -2806,8 +4887,8 @@
       <c r="N67" s="2"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>0.16944444444444443</v>
+      <c r="A68" t="s">
+        <v>84</v>
       </c>
       <c r="B68">
         <v>23</v>
@@ -2842,8 +4923,8 @@
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>0.17152777777777775</v>
+      <c r="A69" t="s">
+        <v>85</v>
       </c>
       <c r="B69">
         <v>23</v>
@@ -2878,8 +4959,8 @@
       <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>0.17430555555555557</v>
+      <c r="A70" t="s">
+        <v>86</v>
       </c>
       <c r="B70">
         <v>22</v>
@@ -2914,8 +4995,8 @@
       <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>0.17569444444444446</v>
+      <c r="A71" t="s">
+        <v>87</v>
       </c>
       <c r="B71">
         <v>22</v>
@@ -2950,8 +5031,8 @@
       <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>0.17708333333333334</v>
+      <c r="A72" t="s">
+        <v>88</v>
       </c>
       <c r="B72">
         <v>22</v>
@@ -2986,8 +5067,8 @@
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>0.17916666666666667</v>
+      <c r="A73" t="s">
+        <v>89</v>
       </c>
       <c r="B73">
         <v>22</v>
@@ -3022,8 +5103,8 @@
       <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>0.18055555555555555</v>
+      <c r="A74" t="s">
+        <v>90</v>
       </c>
       <c r="B74">
         <v>23</v>
@@ -3058,8 +5139,8 @@
       <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>0.18263888888888891</v>
+      <c r="A75" t="s">
+        <v>91</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -3094,8 +5175,8 @@
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>0.18402777777777779</v>
+      <c r="A76" t="s">
+        <v>92</v>
       </c>
       <c r="B76">
         <v>23</v>
@@ -3130,8 +5211,8 @@
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>0.18541666666666667</v>
+      <c r="A77" t="s">
+        <v>93</v>
       </c>
       <c r="B77">
         <v>23</v>
@@ -3166,8 +5247,8 @@
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>0.18680555555555556</v>
+      <c r="A78" t="s">
+        <v>94</v>
       </c>
       <c r="B78">
         <v>22</v>
@@ -3202,8 +5283,8 @@
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>0.18819444444444444</v>
+      <c r="A79" t="s">
+        <v>95</v>
       </c>
       <c r="B79">
         <v>22</v>
@@ -3238,8 +5319,8 @@
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>0.18958333333333333</v>
+      <c r="A80" t="s">
+        <v>96</v>
       </c>
       <c r="B80">
         <v>22</v>
@@ -3274,8 +5355,8 @@
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>0.19097222222222221</v>
+      <c r="A81" t="s">
+        <v>97</v>
       </c>
       <c r="B81">
         <v>22</v>
@@ -3310,8 +5391,8 @@
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>0.19305555555555554</v>
+      <c r="A82" t="s">
+        <v>98</v>
       </c>
       <c r="B82">
         <v>23</v>
@@ -3346,8 +5427,8 @@
       <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>0.19444444444444445</v>
+      <c r="A83" t="s">
+        <v>99</v>
       </c>
       <c r="B83">
         <v>22</v>
@@ -3382,8 +5463,8 @@
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>0.19583333333333333</v>
+      <c r="A84" t="s">
+        <v>100</v>
       </c>
       <c r="B84">
         <v>22</v>
@@ -3418,8 +5499,8 @@
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>0.19722222222222222</v>
+      <c r="A85" t="s">
+        <v>101</v>
       </c>
       <c r="B85">
         <v>22</v>
@@ -3454,8 +5535,8 @@
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>0.1986111111111111</v>
+      <c r="A86" t="s">
+        <v>102</v>
       </c>
       <c r="B86">
         <v>22</v>
@@ -3490,8 +5571,8 @@
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>0.19999999999999998</v>
+      <c r="A87" t="s">
+        <v>103</v>
       </c>
       <c r="B87">
         <v>23</v>
@@ -3526,8 +5607,8 @@
       <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>0.20138888888888887</v>
+      <c r="A88" t="s">
+        <v>104</v>
       </c>
       <c r="B88">
         <v>22</v>
@@ -3562,8 +5643,8 @@
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>0.20347222222222219</v>
+      <c r="A89" t="s">
+        <v>105</v>
       </c>
       <c r="B89">
         <v>22</v>
@@ -3598,8 +5679,8 @@
       <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>0.20625000000000002</v>
+      <c r="A90" t="s">
+        <v>106</v>
       </c>
       <c r="B90">
         <v>23</v>
@@ -3634,8 +5715,8 @@
       <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>0.2076388888888889</v>
+      <c r="A91" t="s">
+        <v>107</v>
       </c>
       <c r="B91">
         <v>23</v>
@@ -3670,8 +5751,8 @@
       <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>0.20902777777777778</v>
+      <c r="A92" t="s">
+        <v>108</v>
       </c>
       <c r="B92">
         <v>22</v>
@@ -3706,8 +5787,8 @@
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>0.21041666666666667</v>
+      <c r="A93" t="s">
+        <v>109</v>
       </c>
       <c r="B93">
         <v>23</v>
@@ -3742,8 +5823,8 @@
       <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>0.21180555555555555</v>
+      <c r="A94" t="s">
+        <v>110</v>
       </c>
       <c r="B94">
         <v>23</v>
@@ -3778,8 +5859,8 @@
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>0.21249999999999999</v>
+      <c r="A95" t="s">
+        <v>111</v>
       </c>
       <c r="B95">
         <v>23</v>
@@ -3814,8 +5895,8 @@
       <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>0.21388888888888891</v>
+      <c r="A96" t="s">
+        <v>112</v>
       </c>
       <c r="B96">
         <v>23</v>
@@ -3850,8 +5931,8 @@
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>0.21527777777777779</v>
+      <c r="A97" t="s">
+        <v>113</v>
       </c>
       <c r="B97">
         <v>23</v>
@@ -3886,8 +5967,8 @@
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>0.21666666666666667</v>
+      <c r="A98" t="s">
+        <v>114</v>
       </c>
       <c r="B98">
         <v>23</v>
@@ -3922,8 +6003,8 @@
       <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>0.21805555555555556</v>
+      <c r="A99" t="s">
+        <v>115</v>
       </c>
       <c r="B99">
         <v>22</v>
@@ -3958,8 +6039,8 @@
       <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
-        <v>0.21875</v>
+      <c r="A100" t="s">
+        <v>116</v>
       </c>
       <c r="B100">
         <v>23</v>
@@ -3994,8 +6075,8 @@
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>0.22013888888888888</v>
+      <c r="A101" t="s">
+        <v>117</v>
       </c>
       <c r="B101">
         <v>22</v>
@@ -4030,8 +6111,8 @@
       <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
-        <v>0.22152777777777777</v>
+      <c r="A102" t="s">
+        <v>118</v>
       </c>
       <c r="B102">
         <v>23</v>
@@ -4066,8 +6147,8 @@
       <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
-        <v>0.22291666666666665</v>
+      <c r="A103" t="s">
+        <v>119</v>
       </c>
       <c r="B103">
         <v>23</v>
@@ -4102,8 +6183,8 @@
       <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>0.22430555555555556</v>
+      <c r="A104" t="s">
+        <v>120</v>
       </c>
       <c r="B104">
         <v>22</v>
@@ -4138,8 +6219,8 @@
       <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>0.22569444444444445</v>
+      <c r="A105" t="s">
+        <v>121</v>
       </c>
       <c r="B105">
         <v>23</v>
@@ -4174,8 +6255,8 @@
       <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>0.22708333333333333</v>
+      <c r="A106" t="s">
+        <v>122</v>
       </c>
       <c r="B106">
         <v>23</v>
@@ -4210,8 +6291,8 @@
       <c r="N106" s="2"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
-        <v>0.22847222222222222</v>
+      <c r="A107" t="s">
+        <v>123</v>
       </c>
       <c r="B107">
         <v>23</v>
@@ -4246,8 +6327,8 @@
       <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>0.2298611111111111</v>
+      <c r="A108" t="s">
+        <v>124</v>
       </c>
       <c r="B108">
         <v>23</v>
@@ -4282,8 +6363,8 @@
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>0.23124999999999998</v>
+      <c r="A109" t="s">
+        <v>125</v>
       </c>
       <c r="B109">
         <v>23</v>
@@ -4318,8 +6399,8 @@
       <c r="N109" s="2"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>0.23333333333333331</v>
+      <c r="A110" t="s">
+        <v>126</v>
       </c>
       <c r="B110">
         <v>22</v>
@@ -4354,8 +6435,8 @@
       <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>0.23472222222222219</v>
+      <c r="A111" t="s">
+        <v>127</v>
       </c>
       <c r="B111">
         <v>23</v>
@@ -4390,8 +6471,8 @@
       <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>0.23680555555555557</v>
+      <c r="A112" t="s">
+        <v>128</v>
       </c>
       <c r="B112">
         <v>23</v>
@@ -4426,8 +6507,8 @@
       <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>0.23819444444444446</v>
+      <c r="A113" t="s">
+        <v>129</v>
       </c>
       <c r="B113">
         <v>23</v>
@@ -4462,8 +6543,8 @@
       <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>0.24027777777777778</v>
+      <c r="A114" t="s">
+        <v>130</v>
       </c>
       <c r="B114">
         <v>22</v>
@@ -4498,8 +6579,8 @@
       <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>0.24097222222222223</v>
+      <c r="A115" t="s">
+        <v>131</v>
       </c>
       <c r="B115">
         <v>23</v>
@@ -4534,8 +6615,8 @@
       <c r="N115" s="2"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>0.24236111111111111</v>
+      <c r="A116" t="s">
+        <v>132</v>
       </c>
       <c r="B116">
         <v>23</v>
@@ -4570,8 +6651,8 @@
       <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>0.24374999999999999</v>
+      <c r="A117" t="s">
+        <v>133</v>
       </c>
       <c r="B117">
         <v>23</v>
@@ -4606,8 +6687,8 @@
       <c r="N117" s="2"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>0.24444444444444446</v>
+      <c r="A118" t="s">
+        <v>134</v>
       </c>
       <c r="B118">
         <v>22</v>
@@ -4642,8 +6723,8 @@
       <c r="N118" s="2"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>0.24583333333333335</v>
+      <c r="A119" t="s">
+        <v>135</v>
       </c>
       <c r="B119">
         <v>23</v>
@@ -4678,8 +6759,8 @@
       <c r="N119" s="2"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>0.24722222222222223</v>
+      <c r="A120" t="s">
+        <v>136</v>
       </c>
       <c r="B120">
         <v>22</v>
@@ -4714,8 +6795,8 @@
       <c r="N120" s="2"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>0.24791666666666667</v>
+      <c r="A121" t="s">
+        <v>137</v>
       </c>
       <c r="B121">
         <v>22</v>
@@ -4750,8 +6831,8 @@
       <c r="N121" s="2"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>0.24930555555555556</v>
+      <c r="A122" t="s">
+        <v>138</v>
       </c>
       <c r="B122">
         <v>23</v>
@@ -4786,8 +6867,8 @@
       <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>0.25069444444444444</v>
+      <c r="A123" t="s">
+        <v>139</v>
       </c>
       <c r="B123">
         <v>22</v>
@@ -4822,8 +6903,8 @@
       <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>0.25208333333333333</v>
+      <c r="A124" t="s">
+        <v>140</v>
       </c>
       <c r="B124">
         <v>23</v>
@@ -4858,8 +6939,8 @@
       <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>0.25347222222222221</v>
+      <c r="A125" t="s">
+        <v>141</v>
       </c>
       <c r="B125">
         <v>23</v>
@@ -4894,8 +6975,8 @@
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>0.25416666666666665</v>
+      <c r="A126" t="s">
+        <v>142</v>
       </c>
       <c r="B126">
         <v>23</v>
@@ -4930,8 +7011,8 @@
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>0.25555555555555559</v>
+      <c r="A127" t="s">
+        <v>143</v>
       </c>
       <c r="B127">
         <v>22</v>
@@ -4966,8 +7047,8 @@
       <c r="N127" s="2"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>0.25763888888888892</v>
+      <c r="A128" t="s">
+        <v>144</v>
       </c>
       <c r="B128">
         <v>22</v>
@@ -5002,8 +7083,8 @@
       <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>0.2590277777777778</v>
+      <c r="A129" t="s">
+        <v>145</v>
       </c>
       <c r="B129">
         <v>23</v>
@@ -5038,8 +7119,8 @@
       <c r="N129" s="2"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>0.25972222222222224</v>
+      <c r="A130" t="s">
+        <v>146</v>
       </c>
       <c r="B130">
         <v>22</v>
@@ -5074,8 +7155,8 @@
       <c r="N130" s="2"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>0.26111111111111113</v>
+      <c r="A131" t="s">
+        <v>147</v>
       </c>
       <c r="B131">
         <v>23</v>
@@ -5110,8 +7191,8 @@
       <c r="N131" s="2"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>0.26180555555555557</v>
+      <c r="A132" t="s">
+        <v>148</v>
       </c>
       <c r="B132">
         <v>23</v>
@@ -5146,8 +7227,8 @@
       <c r="N132" s="2"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>0.26319444444444445</v>
+      <c r="A133" t="s">
+        <v>149</v>
       </c>
       <c r="B133">
         <v>23</v>
@@ -5182,8 +7263,8 @@
       <c r="N133" s="2"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>0.26458333333333334</v>
+      <c r="A134" t="s">
+        <v>150</v>
       </c>
       <c r="B134">
         <v>23</v>
@@ -5218,8 +7299,8 @@
       <c r="N134" s="2"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>0.26597222222222222</v>
+      <c r="A135" t="s">
+        <v>151</v>
       </c>
       <c r="B135">
         <v>23</v>
@@ -5254,8 +7335,8 @@
       <c r="N135" s="2"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>0.26666666666666666</v>
+      <c r="A136" t="s">
+        <v>152</v>
       </c>
       <c r="B136">
         <v>22</v>
@@ -5290,8 +7371,8 @@
       <c r="N136" s="2"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>0.26874999999999999</v>
+      <c r="A137" t="s">
+        <v>153</v>
       </c>
       <c r="B137">
         <v>23</v>
@@ -5326,8 +7407,8 @@
       <c r="N137" s="2"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>0.26944444444444443</v>
+      <c r="A138" t="s">
+        <v>154</v>
       </c>
       <c r="B138">
         <v>23</v>
@@ -5362,8 +7443,8 @@
       <c r="N138" s="2"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>0.27083333333333331</v>
+      <c r="A139" t="s">
+        <v>155</v>
       </c>
       <c r="B139">
         <v>22</v>
@@ -5398,8 +7479,8 @@
       <c r="N139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>0.2722222222222222</v>
+      <c r="A140" t="s">
+        <v>156</v>
       </c>
       <c r="B140">
         <v>23</v>
@@ -5434,8 +7515,8 @@
       <c r="N140" s="2"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>0.27499999999999997</v>
+      <c r="A141" t="s">
+        <v>157</v>
       </c>
       <c r="B141">
         <v>23</v>
@@ -5470,8 +7551,8 @@
       <c r="N141" s="2"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>0.27638888888888885</v>
+      <c r="A142" t="s">
+        <v>158</v>
       </c>
       <c r="B142">
         <v>22</v>
@@ -5506,8 +7587,8 @@
       <c r="N142" s="2"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>0.27777777777777779</v>
+      <c r="A143" t="s">
+        <v>159</v>
       </c>
       <c r="B143">
         <v>23</v>
@@ -5542,8 +7623,8 @@
       <c r="N143" s="2"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>0.27986111111111112</v>
+      <c r="A144" t="s">
+        <v>160</v>
       </c>
       <c r="B144">
         <v>23</v>
@@ -5578,8 +7659,8 @@
       <c r="N144" s="2"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>0.28055555555555556</v>
+      <c r="A145" t="s">
+        <v>161</v>
       </c>
       <c r="B145">
         <v>22</v>
@@ -5614,8 +7695,8 @@
       <c r="N145" s="2"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>0.28194444444444444</v>
+      <c r="A146" t="s">
+        <v>162</v>
       </c>
       <c r="B146">
         <v>23</v>
@@ -5650,8 +7731,8 @@
       <c r="N146" s="2"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>0.28402777777777777</v>
+      <c r="A147" t="s">
+        <v>163</v>
       </c>
       <c r="B147">
         <v>22</v>
@@ -5686,8 +7767,8 @@
       <c r="N147" s="2"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>0.28472222222222221</v>
+      <c r="A148" t="s">
+        <v>164</v>
       </c>
       <c r="B148">
         <v>22</v>
@@ -5722,8 +7803,8 @@
       <c r="N148" s="2"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>0.28611111111111115</v>
+      <c r="A149" t="s">
+        <v>165</v>
       </c>
       <c r="B149">
         <v>23</v>
@@ -5758,8 +7839,8 @@
       <c r="N149" s="2"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>0.28750000000000003</v>
+      <c r="A150" t="s">
+        <v>166</v>
       </c>
       <c r="B150">
         <v>23</v>
@@ -5794,8 +7875,8 @@
       <c r="N150" s="2"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>0.28888888888888892</v>
+      <c r="A151" t="s">
+        <v>167</v>
       </c>
       <c r="B151">
         <v>23</v>
@@ -5830,8 +7911,8 @@
       <c r="N151" s="2"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
-        <v>0.28958333333333336</v>
+      <c r="A152" t="s">
+        <v>168</v>
       </c>
       <c r="B152">
         <v>22</v>
@@ -5866,8 +7947,8 @@
       <c r="N152" s="2"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>0.29097222222222224</v>
+      <c r="A153" t="s">
+        <v>169</v>
       </c>
       <c r="B153">
         <v>23</v>
@@ -5902,8 +7983,8 @@
       <c r="N153" s="2"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>0.29236111111111113</v>
+      <c r="A154" t="s">
+        <v>170</v>
       </c>
       <c r="B154">
         <v>22</v>
@@ -5938,8 +8019,8 @@
       <c r="N154" s="2"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>0.29444444444444445</v>
+      <c r="A155" t="s">
+        <v>171</v>
       </c>
       <c r="B155">
         <v>22</v>
@@ -5974,8 +8055,8 @@
       <c r="N155" s="2"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
-        <v>0.29583333333333334</v>
+      <c r="A156" t="s">
+        <v>172</v>
       </c>
       <c r="B156">
         <v>23</v>
@@ -6010,8 +8091,8 @@
       <c r="N156" s="2"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>0.29791666666666666</v>
+      <c r="A157" t="s">
+        <v>173</v>
       </c>
       <c r="B157">
         <v>23</v>
@@ -6046,8 +8127,8 @@
       <c r="N157" s="2"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
-        <v>0.29930555555555555</v>
+      <c r="A158" t="s">
+        <v>174</v>
       </c>
       <c r="B158">
         <v>23</v>
@@ -6082,8 +8163,8 @@
       <c r="N158" s="2"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
-        <v>0.30069444444444443</v>
+      <c r="A159" t="s">
+        <v>175</v>
       </c>
       <c r="B159">
         <v>23</v>
@@ -6118,8 +8199,8 @@
       <c r="N159" s="2"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>0.30208333333333331</v>
+      <c r="A160" t="s">
+        <v>176</v>
       </c>
       <c r="B160">
         <v>23</v>
@@ -6154,8 +8235,8 @@
       <c r="N160" s="2"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
-        <v>0.3034722222222222</v>
+      <c r="A161" t="s">
+        <v>177</v>
       </c>
       <c r="B161">
         <v>23</v>
@@ -6190,8 +8271,8 @@
       <c r="N161" s="2"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>0.30555555555555552</v>
+      <c r="A162" t="s">
+        <v>178</v>
       </c>
       <c r="B162">
         <v>22</v>
@@ -6226,8 +8307,8 @@
       <c r="N162" s="2"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
-        <v>0.30624999999999997</v>
+      <c r="A163" t="s">
+        <v>179</v>
       </c>
       <c r="B163">
         <v>23</v>
@@ -6262,8 +8343,8 @@
       <c r="N163" s="2"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
-        <v>0.30833333333333335</v>
+      <c r="A164" t="s">
+        <v>180</v>
       </c>
       <c r="B164">
         <v>22</v>
@@ -6298,8 +8379,8 @@
       <c r="N164" s="2"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
-        <v>0.30902777777777779</v>
+      <c r="A165" t="s">
+        <v>181</v>
       </c>
       <c r="B165">
         <v>23</v>
@@ -6334,8 +8415,8 @@
       <c r="N165" s="2"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>0.31041666666666667</v>
+      <c r="A166" t="s">
+        <v>182</v>
       </c>
       <c r="B166">
         <v>23</v>
@@ -6370,8 +8451,8 @@
       <c r="N166" s="2"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
-        <v>0.31319444444444444</v>
+      <c r="A167" t="s">
+        <v>183</v>
       </c>
       <c r="B167">
         <v>23</v>
@@ -6406,8 +8487,8 @@
       <c r="N167" s="2"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
-        <v>0.31458333333333333</v>
+      <c r="A168" t="s">
+        <v>184</v>
       </c>
       <c r="B168">
         <v>22</v>
@@ -6442,8 +8523,8 @@
       <c r="N168" s="2"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
-        <v>0.31597222222222221</v>
+      <c r="A169" t="s">
+        <v>185</v>
       </c>
       <c r="B169">
         <v>23</v>
@@ -6478,8 +8559,8 @@
       <c r="N169" s="2"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
-        <v>0.31736111111111115</v>
+      <c r="A170" t="s">
+        <v>186</v>
       </c>
       <c r="B170">
         <v>22</v>
@@ -6514,8 +8595,8 @@
       <c r="N170" s="2"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
-        <v>0.31875000000000003</v>
+      <c r="A171" t="s">
+        <v>187</v>
       </c>
       <c r="B171">
         <v>23</v>
@@ -6550,8 +8631,8 @@
       <c r="N171" s="2"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>0.32013888888888892</v>
+      <c r="A172" t="s">
+        <v>188</v>
       </c>
       <c r="B172">
         <v>23</v>
@@ -6586,8 +8667,8 @@
       <c r="N172" s="2"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>0.3215277777777778</v>
+      <c r="A173" t="s">
+        <v>189</v>
       </c>
       <c r="B173">
         <v>23</v>
@@ -6622,8 +8703,8 @@
       <c r="N173" s="2"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
-        <v>0.32291666666666669</v>
+      <c r="A174" t="s">
+        <v>190</v>
       </c>
       <c r="B174">
         <v>22</v>
@@ -6658,8 +8739,8 @@
       <c r="N174" s="2"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
-        <v>0.32430555555555557</v>
+      <c r="A175" t="s">
+        <v>191</v>
       </c>
       <c r="B175">
         <v>23</v>
@@ -6694,8 +8775,8 @@
       <c r="N175" s="2"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>0.32569444444444445</v>
+      <c r="A176" t="s">
+        <v>192</v>
       </c>
       <c r="B176">
         <v>22</v>
@@ -6730,8 +8811,8 @@
       <c r="N176" s="2"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
-        <v>0.32708333333333334</v>
+      <c r="A177" t="s">
+        <v>193</v>
       </c>
       <c r="B177">
         <v>22</v>
@@ -6766,8 +8847,8 @@
       <c r="N177" s="2"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>0.32847222222222222</v>
+      <c r="A178" t="s">
+        <v>194</v>
       </c>
       <c r="B178">
         <v>23</v>
@@ -6802,8 +8883,8 @@
       <c r="N178" s="2"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
-        <v>0.32916666666666666</v>
+      <c r="A179" t="s">
+        <v>195</v>
       </c>
       <c r="B179">
         <v>23</v>
@@ -6838,8 +8919,8 @@
       <c r="N179" s="2"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>0.33055555555555555</v>
+      <c r="A180" t="s">
+        <v>196</v>
       </c>
       <c r="B180">
         <v>22</v>
@@ -6874,8 +8955,8 @@
       <c r="N180" s="2"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
-        <v>0.33124999999999999</v>
+      <c r="A181" t="s">
+        <v>197</v>
       </c>
       <c r="B181">
         <v>23</v>
@@ -6910,8 +8991,8 @@
       <c r="N181" s="2"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>0.33263888888888887</v>
+      <c r="A182" t="s">
+        <v>198</v>
       </c>
       <c r="B182">
         <v>23</v>
@@ -6946,8 +9027,8 @@
       <c r="N182" s="2"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
-        <v>0.33402777777777781</v>
+      <c r="A183" t="s">
+        <v>199</v>
       </c>
       <c r="B183">
         <v>23</v>
@@ -6982,8 +9063,8 @@
       <c r="N183" s="2"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
-        <v>0.3354166666666667</v>
+      <c r="A184" t="s">
+        <v>200</v>
       </c>
       <c r="B184">
         <v>23</v>
@@ -7018,8 +9099,8 @@
       <c r="N184" s="2"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
-        <v>0.33680555555555558</v>
+      <c r="A185" t="s">
+        <v>201</v>
       </c>
       <c r="B185">
         <v>23</v>
@@ -7054,8 +9135,8 @@
       <c r="N185" s="2"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
-        <v>0.33819444444444446</v>
+      <c r="A186" t="s">
+        <v>202</v>
       </c>
       <c r="B186">
         <v>22</v>
@@ -7090,8 +9171,8 @@
       <c r="N186" s="2"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>0.33958333333333335</v>
+      <c r="A187" t="s">
+        <v>203</v>
       </c>
       <c r="B187">
         <v>23</v>
@@ -7126,8 +9207,8 @@
       <c r="N187" s="2"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A188" s="2">
-        <v>0.34027777777777773</v>
+      <c r="A188" t="s">
+        <v>204</v>
       </c>
       <c r="B188">
         <v>23</v>
@@ -7162,8 +9243,8 @@
       <c r="N188" s="2"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A189" s="2">
-        <v>0.34166666666666662</v>
+      <c r="A189" t="s">
+        <v>205</v>
       </c>
       <c r="B189">
         <v>23</v>
@@ -7198,8 +9279,8 @@
       <c r="N189" s="2"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
-        <v>0.3430555555555555</v>
+      <c r="A190" t="s">
+        <v>206</v>
       </c>
       <c r="B190">
         <v>22</v>
@@ -7234,8 +9315,8 @@
       <c r="N190" s="2"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A191" s="2">
-        <v>0.3444444444444445</v>
+      <c r="A191" t="s">
+        <v>207</v>
       </c>
       <c r="B191">
         <v>22</v>
@@ -7270,8 +9351,8 @@
       <c r="N191" s="2"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A192" s="2">
-        <v>0.34652777777777777</v>
+      <c r="A192" t="s">
+        <v>208</v>
       </c>
       <c r="B192">
         <v>22</v>
@@ -7306,8 +9387,8 @@
       <c r="N192" s="2"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A193" s="2">
-        <v>0.34791666666666665</v>
+      <c r="A193" t="s">
+        <v>209</v>
       </c>
       <c r="B193">
         <v>23</v>
@@ -7342,8 +9423,8 @@
       <c r="N193" s="2"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A194" s="2">
-        <v>0.34861111111111115</v>
+      <c r="A194" t="s">
+        <v>210</v>
       </c>
       <c r="B194">
         <v>22</v>
@@ -7378,8 +9459,8 @@
       <c r="N194" s="2"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A195" s="2">
-        <v>0.35000000000000003</v>
+      <c r="A195" t="s">
+        <v>211</v>
       </c>
       <c r="B195">
         <v>23</v>
@@ -7414,8 +9495,8 @@
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A196" s="2">
-        <v>0.35138888888888892</v>
+      <c r="A196" t="s">
+        <v>212</v>
       </c>
       <c r="B196">
         <v>22</v>
@@ -7450,8 +9531,8 @@
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A197" s="2">
-        <v>0.3527777777777778</v>
+      <c r="A197" t="s">
+        <v>213</v>
       </c>
       <c r="B197">
         <v>23</v>
@@ -7486,8 +9567,8 @@
       <c r="N197" s="2"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
-        <v>0.35347222222222219</v>
+      <c r="A198" t="s">
+        <v>214</v>
       </c>
       <c r="B198">
         <v>23</v>
@@ -7522,8 +9603,8 @@
       <c r="N198" s="2"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
-        <v>0.35486111111111113</v>
+      <c r="A199" t="s">
+        <v>215</v>
       </c>
       <c r="B199">
         <v>23</v>
@@ -7558,8 +9639,8 @@
       <c r="N199" s="2"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A200" s="2">
-        <v>0.35625000000000001</v>
+      <c r="A200" t="s">
+        <v>216</v>
       </c>
       <c r="B200">
         <v>22</v>
@@ -7594,8 +9675,8 @@
       <c r="N200" s="2"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A201" s="2">
-        <v>0.35833333333333334</v>
+      <c r="A201" t="s">
+        <v>217</v>
       </c>
       <c r="B201">
         <v>22</v>
@@ -7630,8 +9711,8 @@
       <c r="N201" s="2"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
-        <v>0.35972222222222222</v>
+      <c r="A202" t="s">
+        <v>218</v>
       </c>
       <c r="B202">
         <v>23</v>
@@ -7666,8 +9747,8 @@
       <c r="N202" s="2"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A203" s="2">
-        <v>0.3611111111111111</v>
+      <c r="A203" t="s">
+        <v>219</v>
       </c>
       <c r="B203">
         <v>23</v>
@@ -7702,8 +9783,8 @@
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A204" s="2">
-        <v>0.36319444444444443</v>
+      <c r="A204" t="s">
+        <v>220</v>
       </c>
       <c r="B204">
         <v>23</v>
@@ -7738,8 +9819,8 @@
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A205" s="2">
-        <v>0.36458333333333331</v>
+      <c r="A205" t="s">
+        <v>221</v>
       </c>
       <c r="B205">
         <v>22</v>
@@ -7774,8 +9855,8 @@
       <c r="N205" s="2"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A206" s="2">
-        <v>0.36527777777777781</v>
+      <c r="A206" t="s">
+        <v>222</v>
       </c>
       <c r="B206">
         <v>23</v>
@@ -7810,8 +9891,8 @@
       <c r="N206" s="2"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A207" s="2">
-        <v>0.3666666666666667</v>
+      <c r="A207" t="s">
+        <v>223</v>
       </c>
       <c r="B207">
         <v>22</v>
@@ -7846,8 +9927,8 @@
       <c r="N207" s="2"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A208" s="2">
-        <v>0.36874999999999997</v>
+      <c r="A208" t="s">
+        <v>224</v>
       </c>
       <c r="B208">
         <v>23</v>
@@ -7882,8 +9963,8 @@
       <c r="N208" s="2"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A209" s="2">
-        <v>0.37013888888888885</v>
+      <c r="A209" t="s">
+        <v>225</v>
       </c>
       <c r="B209">
         <v>23</v>
@@ -7918,8 +9999,8 @@
       <c r="N209" s="2"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A210" s="2">
-        <v>0.37083333333333335</v>
+      <c r="A210" t="s">
+        <v>226</v>
       </c>
       <c r="B210">
         <v>23</v>
@@ -7954,8 +10035,8 @@
       <c r="N210" s="2"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
-        <v>0.37222222222222223</v>
+      <c r="A211" t="s">
+        <v>227</v>
       </c>
       <c r="B211">
         <v>23</v>
@@ -7990,8 +10071,8 @@
       <c r="N211" s="2"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A212" s="2">
-        <v>0.37361111111111112</v>
+      <c r="A212" t="s">
+        <v>228</v>
       </c>
       <c r="B212">
         <v>22</v>
@@ -8026,8 +10107,8 @@
       <c r="N212" s="2"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A213" s="2">
-        <v>0.375</v>
+      <c r="A213" t="s">
+        <v>229</v>
       </c>
       <c r="B213">
         <v>23</v>
@@ -8062,8 +10143,8 @@
       <c r="N213" s="2"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A214" s="2">
-        <v>0.37638888888888888</v>
+      <c r="A214" t="s">
+        <v>230</v>
       </c>
       <c r="B214">
         <v>23</v>
@@ -8098,8 +10179,8 @@
       <c r="N214" s="2"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A215" s="2">
-        <v>0.37708333333333338</v>
+      <c r="A215" t="s">
+        <v>231</v>
       </c>
       <c r="B215">
         <v>23</v>
@@ -8134,8 +10215,8 @@
       <c r="N215" s="2"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A216" s="2">
-        <v>0.37847222222222227</v>
+      <c r="A216" t="s">
+        <v>232</v>
       </c>
       <c r="B216">
         <v>23</v>
@@ -8170,8 +10251,8 @@
       <c r="N216" s="2"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A217" s="2">
-        <v>0.37986111111111115</v>
+      <c r="A217" t="s">
+        <v>233</v>
       </c>
       <c r="B217">
         <v>23</v>
@@ -8206,8 +10287,8 @@
       <c r="N217" s="2"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A218" s="2">
-        <v>0.38125000000000003</v>
+      <c r="A218" t="s">
+        <v>234</v>
       </c>
       <c r="B218">
         <v>23</v>
@@ -8242,8 +10323,8 @@
       <c r="N218" s="2"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A219" s="2">
-        <v>0.38263888888888892</v>
+      <c r="A219" t="s">
+        <v>235</v>
       </c>
       <c r="B219">
         <v>23</v>
@@ -8278,8 +10359,8 @@
       <c r="N219" s="2"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A220" s="2">
-        <v>0.3833333333333333</v>
+      <c r="A220" t="s">
+        <v>236</v>
       </c>
       <c r="B220">
         <v>23</v>
@@ -8314,8 +10395,8 @@
       <c r="N220" s="2"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A221" s="2">
-        <v>0.38472222222222219</v>
+      <c r="A221" t="s">
+        <v>237</v>
       </c>
       <c r="B221">
         <v>22</v>
@@ -8350,8 +10431,8 @@
       <c r="N221" s="2"/>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>0.38680555555555557</v>
+      <c r="A222" t="s">
+        <v>238</v>
       </c>
       <c r="B222">
         <v>22</v>
@@ -8386,8 +10467,8 @@
       <c r="N222" s="2"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>0.38750000000000001</v>
+      <c r="A223" t="s">
+        <v>239</v>
       </c>
       <c r="B223">
         <v>23</v>
@@ -8422,8 +10503,8 @@
       <c r="N223" s="2"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>0.3888888888888889</v>
+      <c r="A224" t="s">
+        <v>240</v>
       </c>
       <c r="B224">
         <v>22</v>
@@ -8458,8 +10539,8 @@
       <c r="N224" s="2"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>0.39027777777777778</v>
+      <c r="A225" t="s">
+        <v>241</v>
       </c>
       <c r="B225">
         <v>23</v>
@@ -8494,8 +10575,8 @@
       <c r="N225" s="2"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>0.39166666666666666</v>
+      <c r="A226" t="s">
+        <v>242</v>
       </c>
       <c r="B226">
         <v>22</v>
@@ -8530,8 +10611,8 @@
       <c r="N226" s="2"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A227" s="2">
-        <v>0.39305555555555555</v>
+      <c r="A227" t="s">
+        <v>243</v>
       </c>
       <c r="B227">
         <v>22</v>
@@ -8566,8 +10647,8 @@
       <c r="N227" s="2"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A228" s="2">
-        <v>0.39374999999999999</v>
+      <c r="A228" t="s">
+        <v>244</v>
       </c>
       <c r="B228">
         <v>23</v>
@@ -8602,8 +10683,8 @@
       <c r="N228" s="2"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A229" s="2">
-        <v>0.39513888888888887</v>
+      <c r="A229" t="s">
+        <v>245</v>
       </c>
       <c r="B229">
         <v>22</v>
@@ -8638,8 +10719,8 @@
       <c r="N229" s="2"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A230" s="2">
-        <v>0.39652777777777781</v>
+      <c r="A230" t="s">
+        <v>246</v>
       </c>
       <c r="B230">
         <v>23</v>
@@ -8674,8 +10755,8 @@
       <c r="N230" s="2"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A231" s="2">
-        <v>0.3972222222222222</v>
+      <c r="A231" t="s">
+        <v>247</v>
       </c>
       <c r="B231">
         <v>22</v>
@@ -8710,8 +10791,8 @@
       <c r="N231" s="2"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A232" s="2">
-        <v>0.39861111111111108</v>
+      <c r="A232" t="s">
+        <v>248</v>
       </c>
       <c r="B232">
         <v>23</v>
@@ -8746,8 +10827,8 @@
       <c r="N232" s="2"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A233" s="2">
-        <v>0.39999999999999997</v>
+      <c r="A233" t="s">
+        <v>249</v>
       </c>
       <c r="B233">
         <v>23</v>
@@ -8782,8 +10863,8 @@
       <c r="N233" s="2"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A234" s="2">
-        <v>0.40138888888888885</v>
+      <c r="A234" t="s">
+        <v>250</v>
       </c>
       <c r="B234">
         <v>23</v>
@@ -8818,8 +10899,8 @@
       <c r="N234" s="2"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A235" s="2">
-        <v>0.40277777777777773</v>
+      <c r="A235" t="s">
+        <v>251</v>
       </c>
       <c r="B235">
         <v>23</v>
@@ -8854,8 +10935,8 @@
       <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
-        <v>0.40486111111111112</v>
+      <c r="A236" t="s">
+        <v>252</v>
       </c>
       <c r="B236">
         <v>22</v>
@@ -8890,8 +10971,8 @@
       <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A237" s="2">
-        <v>0.4069444444444445</v>
+      <c r="A237" t="s">
+        <v>253</v>
       </c>
       <c r="B237">
         <v>22</v>
@@ -8926,8 +11007,8 @@
       <c r="N237" s="2"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A238" s="2">
-        <v>0.40833333333333338</v>
+      <c r="A238" t="s">
+        <v>254</v>
       </c>
       <c r="B238">
         <v>23</v>
@@ -8962,8 +11043,8 @@
       <c r="N238" s="2"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A239" s="2">
-        <v>0.40972222222222227</v>
+      <c r="A239" t="s">
+        <v>255</v>
       </c>
       <c r="B239">
         <v>22</v>
@@ -8998,8 +11079,8 @@
       <c r="N239" s="2"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>0.41111111111111115</v>
+      <c r="A240" t="s">
+        <v>256</v>
       </c>
       <c r="B240">
         <v>23</v>
@@ -9034,8 +11115,8 @@
       <c r="N240" s="2"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A241" s="2">
-        <v>0.41250000000000003</v>
+      <c r="A241" t="s">
+        <v>257</v>
       </c>
       <c r="B241">
         <v>23</v>
@@ -9070,8 +11151,8 @@
       <c r="N241" s="2"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A242" s="2">
-        <v>0.4145833333333333</v>
+      <c r="A242" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="B242">
         <v>22</v>
@@ -9106,8 +11187,8 @@
       <c r="N242" s="2"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>0.41666666666666669</v>
+      <c r="A243" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="B243">
         <v>22</v>
@@ -9142,8 +11223,8 @@
       <c r="N243" s="2"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A244" s="2">
-        <v>0.41805555555555557</v>
+      <c r="A244" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B244">
         <v>22</v>
@@ -9178,8 +11259,8 @@
       <c r="N244" s="2"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A245" s="2">
-        <v>0.41944444444444445</v>
+      <c r="A245" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="B245">
         <v>22</v>
@@ -9214,8 +11295,8 @@
       <c r="N245" s="2"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A246" s="2">
-        <v>0.42083333333333334</v>
+      <c r="A246" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="B246">
         <v>23</v>
@@ -9250,8 +11331,8 @@
       <c r="N246" s="2"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A247" s="2">
-        <v>0.42152777777777778</v>
+      <c r="A247" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="B247">
         <v>22</v>
@@ -9286,8 +11367,8 @@
       <c r="N247" s="2"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A248" s="2">
-        <v>0.42222222222222222</v>
+      <c r="A248" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="B248">
         <v>23</v>
@@ -9322,8 +11403,8 @@
       <c r="N248" s="2"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A249" s="2">
-        <v>0.4236111111111111</v>
+      <c r="A249" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="B249">
         <v>22</v>
@@ -9358,8 +11439,8 @@
       <c r="N249" s="2"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A250" s="2">
-        <v>0.42430555555555555</v>
+      <c r="A250" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="B250">
         <v>22</v>
@@ -9394,8 +11475,8 @@
       <c r="N250" s="2"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A251" s="2">
-        <v>0.42569444444444443</v>
+      <c r="A251" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="B251">
         <v>23</v>
@@ -9430,8 +11511,8 @@
       <c r="N251" s="2"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A252" s="2">
-        <v>0.42638888888888887</v>
+      <c r="A252" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="B252">
         <v>22</v>
@@ -9466,8 +11547,8 @@
       <c r="N252" s="2"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A253" s="2">
-        <v>0.42777777777777781</v>
+      <c r="A253" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="B253">
         <v>23</v>
@@ -9502,8 +11583,8 @@
       <c r="N253" s="2"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A254" s="2">
-        <v>0.4284722222222222</v>
+      <c r="A254" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="B254">
         <v>22</v>
@@ -9538,8 +11619,8 @@
       <c r="N254" s="2"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A255" s="2">
-        <v>0.42986111111111108</v>
+      <c r="A255" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B255">
         <v>22</v>
@@ -9574,8 +11655,8 @@
       <c r="N255" s="2"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A256" s="2">
-        <v>0.43124999999999997</v>
+      <c r="A256" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="B256">
         <v>22</v>
@@ -9610,8 +11691,8 @@
       <c r="N256" s="2"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A257" s="2">
-        <v>0.43194444444444446</v>
+      <c r="A257" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B257">
         <v>22</v>
@@ -9646,8 +11727,8 @@
       <c r="N257" s="2"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A258" s="2">
-        <v>0.43333333333333335</v>
+      <c r="A258" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="B258">
         <v>23</v>
@@ -9682,8 +11763,8 @@
       <c r="N258" s="2"/>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A259" s="2">
-        <v>0.43402777777777773</v>
+      <c r="A259" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="B259">
         <v>22</v>
@@ -9718,8 +11799,8 @@
       <c r="N259" s="2"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A260" s="2">
-        <v>0.43541666666666662</v>
+      <c r="A260" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="B260">
         <v>23</v>
@@ -9754,8 +11835,8 @@
       <c r="N260" s="2"/>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A261" s="2">
-        <v>0.4368055555555555</v>
+      <c r="A261" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="B261">
         <v>23</v>
@@ -9790,8 +11871,8 @@
       <c r="N261" s="2"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
-        <v>0.4375</v>
+      <c r="A262" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="B262">
         <v>22</v>
@@ -9826,8 +11907,8 @@
       <c r="N262" s="2"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A263" s="2">
-        <v>0.43888888888888888</v>
+      <c r="A263" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="B263">
         <v>23</v>
@@ -9862,8 +11943,8 @@
       <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A264" s="2">
-        <v>0.44027777777777777</v>
+      <c r="A264" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="B264">
         <v>22</v>
@@ -9898,8 +11979,8 @@
       <c r="N264" s="2"/>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A265" s="2">
-        <v>0.44166666666666665</v>
+      <c r="A265" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="B265">
         <v>23</v>
@@ -9934,8 +12015,8 @@
       <c r="N265" s="2"/>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A266" s="2">
-        <v>0.44305555555555554</v>
+      <c r="A266" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="B266">
         <v>23</v>
@@ -9970,8 +12051,8 @@
       <c r="N266" s="2"/>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A267" s="2">
-        <v>0.44513888888888892</v>
+      <c r="A267" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B267">
         <v>23</v>
@@ -10006,8 +12087,8 @@
       <c r="N267" s="2"/>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A268" s="2">
-        <v>0.4465277777777778</v>
+      <c r="A268" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B268">
         <v>22</v>
@@ -10042,8 +12123,8 @@
       <c r="N268" s="2"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A269" s="2">
-        <v>0.44791666666666669</v>
+      <c r="A269" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="B269">
         <v>23</v>
@@ -10078,8 +12159,8 @@
       <c r="N269" s="2"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A270" s="2">
-        <v>0.44930555555555557</v>
+      <c r="A270" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="B270">
         <v>23</v>
@@ -10114,8 +12195,8 @@
       <c r="N270" s="2"/>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A271" s="2">
-        <v>0.45</v>
+      <c r="A271" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="B271">
         <v>23</v>
@@ -10150,8 +12231,8 @@
       <c r="N271" s="2"/>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A272" s="2">
-        <v>0.4513888888888889</v>
+      <c r="A272" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="B272">
         <v>22</v>
@@ -10186,8 +12267,8 @@
       <c r="N272" s="2"/>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A273" s="2">
-        <v>0.45277777777777778</v>
+      <c r="A273" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="B273">
         <v>23</v>
@@ -10222,8 +12303,8 @@
       <c r="N273" s="2"/>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A274" s="2">
-        <v>0.45416666666666666</v>
+      <c r="A274" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="B274">
         <v>22</v>
@@ -10258,8 +12339,8 @@
       <c r="N274" s="2"/>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A275" s="2">
-        <v>0.45555555555555555</v>
+      <c r="A275" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="B275">
         <v>23</v>
@@ -10294,8 +12375,8 @@
       <c r="N275" s="2"/>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A276" s="2">
-        <v>0.45624999999999999</v>
+      <c r="A276" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="B276">
         <v>23</v>
@@ -10330,8 +12411,8 @@
       <c r="N276" s="2"/>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A277" s="2">
-        <v>0.45763888888888887</v>
+      <c r="A277" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="B277">
         <v>23</v>
@@ -10366,8 +12447,8 @@
       <c r="N277" s="2"/>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A278" s="2">
-        <v>0.45902777777777781</v>
+      <c r="A278" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="B278">
         <v>23</v>
@@ -10402,8 +12483,8 @@
       <c r="N278" s="2"/>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A279" s="2">
-        <v>0.4604166666666667</v>
+      <c r="A279" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="B279">
         <v>23</v>
@@ -10438,8 +12519,8 @@
       <c r="N279" s="2"/>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A280" s="2">
-        <v>0.46180555555555558</v>
+      <c r="A280" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="B280">
         <v>22</v>
@@ -10474,8 +12555,8 @@
       <c r="N280" s="2"/>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A281" s="2">
-        <v>0.46319444444444446</v>
+      <c r="A281" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="B281">
         <v>23</v>
@@ -10510,8 +12591,8 @@
       <c r="N281" s="2"/>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A282" s="2">
-        <v>0.46458333333333335</v>
+      <c r="A282" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="B282">
         <v>23</v>
@@ -10546,8 +12627,8 @@
       <c r="N282" s="2"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A283" s="2">
-        <v>0.46527777777777773</v>
+      <c r="A283" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B283">
         <v>22</v>
@@ -10582,8 +12663,8 @@
       <c r="N283" s="2"/>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A284" s="2">
-        <v>0.46666666666666662</v>
+      <c r="A284" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="B284">
         <v>23</v>
@@ -10618,8 +12699,8 @@
       <c r="N284" s="2"/>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A285" s="2">
-        <v>0.4680555555555555</v>
+      <c r="A285" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B285">
         <v>23</v>
@@ -10654,8 +12735,8 @@
       <c r="N285" s="2"/>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A286" s="2">
-        <v>0.4694444444444445</v>
+      <c r="A286" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="B286">
         <v>22</v>
@@ -10690,8 +12771,8 @@
       <c r="N286" s="2"/>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A287" s="2">
-        <v>0.47083333333333338</v>
+      <c r="A287" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="B287">
         <v>23</v>
@@ -10726,8 +12807,8 @@
       <c r="N287" s="2"/>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A288" s="2">
-        <v>0.47152777777777777</v>
+      <c r="A288" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="B288">
         <v>22</v>
@@ -10762,8 +12843,8 @@
       <c r="N288" s="2"/>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A289" s="2">
-        <v>0.47291666666666665</v>
+      <c r="A289" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="B289">
         <v>22</v>
@@ -10798,8 +12879,8 @@
       <c r="N289" s="2"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A290" s="2">
-        <v>0.47361111111111115</v>
+      <c r="A290" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="B290">
         <v>23</v>
@@ -10834,8 +12915,8 @@
       <c r="N290" s="2"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A291" s="2">
-        <v>0.47569444444444442</v>
+      <c r="A291" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="B291">
         <v>22</v>
@@ -10870,8 +12951,8 @@
       <c r="N291" s="2"/>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A292" s="2">
-        <v>0.4777777777777778</v>
+      <c r="A292" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="B292">
         <v>23</v>
@@ -10906,8 +12987,8 @@
       <c r="N292" s="2"/>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
-        <v>0.47986111111111113</v>
+      <c r="A293" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="B293">
         <v>22</v>
@@ -10942,8 +13023,8 @@
       <c r="N293" s="2"/>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A294" s="2">
-        <v>0.48125000000000001</v>
+      <c r="A294" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="B294">
         <v>23</v>
@@ -10978,8 +13059,8 @@
       <c r="N294" s="2"/>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A295" s="2">
-        <v>0.4826388888888889</v>
+      <c r="A295" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="B295">
         <v>22</v>
@@ -11014,8 +13095,8 @@
       <c r="N295" s="2"/>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A296" s="2">
-        <v>0.48402777777777778</v>
+      <c r="A296" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="B296">
         <v>23</v>
@@ -11050,8 +13131,8 @@
       <c r="N296" s="2"/>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A297" s="2">
-        <v>0.48541666666666666</v>
+      <c r="A297" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="B297">
         <v>22</v>
@@ -11086,8 +13167,8 @@
       <c r="N297" s="2"/>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A298" s="2">
-        <v>0.4861111111111111</v>
+      <c r="A298" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="B298">
         <v>22</v>
@@ -11122,8 +13203,8 @@
       <c r="N298" s="2"/>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A299" s="2">
-        <v>0.48749999999999999</v>
+      <c r="A299" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="B299">
         <v>23</v>
@@ -11158,8 +13239,8 @@
       <c r="N299" s="2"/>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A300" s="2">
-        <v>0.48819444444444443</v>
+      <c r="A300" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="B300">
         <v>23</v>
@@ -11194,8 +13275,8 @@
       <c r="N300" s="2"/>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A301" s="2">
-        <v>0.48958333333333331</v>
+      <c r="A301" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="B301">
         <v>22</v>
@@ -11230,8 +13311,8 @@
       <c r="N301" s="2"/>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A302" s="2">
-        <v>0.4909722222222222</v>
+      <c r="A302" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="B302">
         <v>23</v>
@@ -11266,8 +13347,8 @@
       <c r="N302" s="2"/>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A303" s="2">
-        <v>0.4916666666666667</v>
+      <c r="A303" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="B303">
         <v>23</v>
@@ -11302,8 +13383,8 @@
       <c r="N303" s="2"/>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A304" s="2">
-        <v>0.49305555555555558</v>
+      <c r="A304" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="B304">
         <v>23</v>
@@ -11338,8 +13419,8 @@
       <c r="N304" s="2"/>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A305" s="2">
-        <v>0.49444444444444446</v>
+      <c r="A305" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="B305">
         <v>22</v>
@@ -11374,8 +13455,8 @@
       <c r="N305" s="2"/>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A306" s="2">
-        <v>0.49513888888888885</v>
+      <c r="A306" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="B306">
         <v>22</v>
@@ -11410,8 +13491,8 @@
       <c r="N306" s="2"/>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A307" s="2">
-        <v>0.49652777777777773</v>
+      <c r="A307" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="B307">
         <v>23</v>
@@ -11446,8 +13527,8 @@
       <c r="N307" s="2"/>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A308" s="2">
-        <v>0.49791666666666662</v>
+      <c r="A308" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="B308">
         <v>23</v>
@@ -11482,8 +13563,8 @@
       <c r="N308" s="2"/>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A309" s="2">
-        <v>0.49861111111111112</v>
+      <c r="A309" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="B309">
         <v>23</v>
@@ -11518,8 +13599,8 @@
       <c r="N309" s="2"/>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A310" s="2">
-        <v>0.5</v>
+      <c r="A310" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="B310">
         <v>22</v>
@@ -11554,8 +13635,8 @@
       <c r="N310" s="2"/>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A311" s="2">
-        <v>0.50138888888888888</v>
+      <c r="A311" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="B311">
         <v>23</v>
@@ -11590,8 +13671,8 @@
       <c r="N311" s="2"/>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A312" s="2">
-        <v>0.50277777777777777</v>
+      <c r="A312" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="B312">
         <v>22</v>
@@ -11626,8 +13707,8 @@
       <c r="N312" s="2"/>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A313" s="2">
-        <v>0.50416666666666665</v>
+      <c r="A313" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="B313">
         <v>23</v>
@@ -11662,8 +13743,8 @@
       <c r="N313" s="2"/>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A314" s="2">
-        <v>0.50555555555555554</v>
+      <c r="A314" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="B314">
         <v>22</v>
@@ -11698,8 +13779,8 @@
       <c r="N314" s="2"/>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A315" s="2">
-        <v>0.50694444444444442</v>
+      <c r="A315" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="B315">
         <v>23</v>
@@ -11734,8 +13815,8 @@
       <c r="N315" s="2"/>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A316" s="2">
-        <v>0.5083333333333333</v>
+      <c r="A316" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="B316">
         <v>23</v>
@@ -11770,8 +13851,8 @@
       <c r="N316" s="2"/>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A317" s="2">
-        <v>0.50972222222222219</v>
+      <c r="A317" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="B317">
         <v>22</v>
@@ -11806,8 +13887,8 @@
       <c r="N317" s="2"/>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A318" s="2">
-        <v>0.51111111111111118</v>
+      <c r="A318" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="B318">
         <v>37</v>
@@ -11842,8 +13923,8 @@
       <c r="N318" s="2"/>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A319" s="2">
-        <v>0.51180555555555551</v>
+      <c r="A319" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="B319">
         <v>39</v>
@@ -11878,8 +13959,8 @@
       <c r="N319" s="2"/>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A320" s="2">
-        <v>0.5131944444444444</v>
+      <c r="A320" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="B320">
         <v>39</v>
@@ -11914,8 +13995,8 @@
       <c r="N320" s="2"/>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A321" s="2">
-        <v>0.51458333333333328</v>
+      <c r="A321" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="B321">
         <v>40</v>
@@ -11950,8 +14031,8 @@
       <c r="N321" s="2"/>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A322" s="2">
-        <v>0.51527777777777783</v>
+      <c r="A322" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="B322">
         <v>40</v>
@@ -11986,8 +14067,8 @@
       <c r="N322" s="2"/>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A323" s="2">
-        <v>0.51666666666666672</v>
+      <c r="A323" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="B323">
         <v>40</v>
@@ -12022,8 +14103,8 @@
       <c r="N323" s="2"/>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A324" s="2">
-        <v>0.5180555555555556</v>
+      <c r="A324" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="B324">
         <v>39</v>
@@ -12058,8 +14139,8 @@
       <c r="N324" s="2"/>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A325" s="2">
-        <v>0.51874999999999993</v>
+      <c r="A325" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="B325">
         <v>40</v>
@@ -12094,8 +14175,8 @@
       <c r="N325" s="2"/>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A326" s="2">
-        <v>0.52013888888888882</v>
+      <c r="A326" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="B326">
         <v>45</v>
@@ -12130,8 +14211,8 @@
       <c r="N326" s="2"/>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A327" s="2">
-        <v>0.52083333333333337</v>
+      <c r="A327" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="B327">
         <v>49</v>
@@ -12166,8 +14247,8 @@
       <c r="N327" s="2"/>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A328" s="2">
-        <v>0.52222222222222225</v>
+      <c r="A328" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="B328">
         <v>48</v>
@@ -12202,8 +14283,8 @@
       <c r="N328" s="2"/>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A329" s="2">
-        <v>0.5229166666666667</v>
+      <c r="A329" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="B329">
         <v>47</v>
@@ -12238,8 +14319,8 @@
       <c r="N329" s="2"/>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A330" s="2">
-        <v>0.52430555555555558</v>
+      <c r="A330" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="B330">
         <v>48</v>
@@ -12274,8 +14355,8 @@
       <c r="N330" s="2"/>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A331" s="2">
-        <v>0.52569444444444446</v>
+      <c r="A331" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="B331">
         <v>48</v>
@@ -12310,8 +14391,8 @@
       <c r="N331" s="2"/>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A332" s="2">
-        <v>0.52638888888888891</v>
+      <c r="A332" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="B332">
         <v>47</v>
@@ -12346,8 +14427,8 @@
       <c r="N332" s="2"/>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A333" s="2">
-        <v>0.52916666666666667</v>
+      <c r="A333" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="B333">
         <v>49</v>
@@ -12382,8 +14463,8 @@
       <c r="N333" s="2"/>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A334" s="2">
-        <v>0.53055555555555556</v>
+      <c r="A334" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="B334">
         <v>48</v>
@@ -12418,8 +14499,8 @@
       <c r="N334" s="2"/>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A335" s="2">
-        <v>0.53125</v>
+      <c r="A335" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="B335">
         <v>47</v>
@@ -12454,8 +14535,8 @@
       <c r="N335" s="2"/>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A336" s="2">
-        <v>0.53263888888888888</v>
+      <c r="A336" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="B336">
         <v>66</v>
@@ -12490,8 +14571,8 @@
       <c r="N336" s="2"/>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A337" s="2">
-        <v>0.53333333333333333</v>
+      <c r="A337" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="B337">
         <v>71</v>
@@ -12526,8 +14607,8 @@
       <c r="N337" s="2"/>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A338" s="2">
-        <v>0.53472222222222221</v>
+      <c r="A338" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="B338">
         <v>70</v>
@@ -12562,8 +14643,8 @@
       <c r="N338" s="2"/>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A339" s="2">
-        <v>0.53611111111111109</v>
+      <c r="A339" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="B339">
         <v>72</v>
@@ -12598,8 +14679,8 @@
       <c r="N339" s="2"/>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A340" s="2">
-        <v>0.53749999999999998</v>
+      <c r="A340" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="B340">
         <v>70</v>
@@ -12634,8 +14715,8 @@
       <c r="N340" s="2"/>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A341" s="2">
-        <v>0.53819444444444442</v>
+      <c r="A341" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="B341">
         <v>71</v>
@@ -12670,8 +14751,8 @@
       <c r="N341" s="2"/>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A342" s="2">
-        <v>0.53888888888888886</v>
+      <c r="A342" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="B342">
         <v>71</v>
@@ -12706,8 +14787,8 @@
       <c r="N342" s="2"/>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A343" s="2">
-        <v>0.54027777777777775</v>
+      <c r="A343" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="B343">
         <v>71</v>
@@ -12742,8 +14823,8 @@
       <c r="N343" s="2"/>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A344" s="2">
-        <v>0.54097222222222219</v>
+      <c r="A344" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="B344">
         <v>71</v>
@@ -12778,8 +14859,8 @@
       <c r="N344" s="2"/>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A345" s="2">
-        <v>0.54236111111111118</v>
+      <c r="A345" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="B345">
         <v>73</v>
@@ -12814,8 +14895,8 @@
       <c r="N345" s="2"/>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A346" s="2">
-        <v>0.54305555555555551</v>
+      <c r="A346" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="B346">
         <v>79</v>
@@ -12850,8 +14931,8 @@
       <c r="N346" s="2"/>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A347" s="2">
-        <v>0.5444444444444444</v>
+      <c r="A347" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="B347">
         <v>78</v>
@@ -12886,8 +14967,8 @@
       <c r="N347" s="2"/>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A348" s="2">
-        <v>0.54583333333333328</v>
+      <c r="A348" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="B348">
         <v>78</v>
@@ -12922,8 +15003,8 @@
       <c r="N348" s="2"/>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A349" s="2">
-        <v>0.54652777777777783</v>
+      <c r="A349" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="B349">
         <v>79</v>
@@ -12958,8 +15039,8 @@
       <c r="N349" s="2"/>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A350" s="2">
-        <v>0.54791666666666672</v>
+      <c r="A350" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="B350">
         <v>81</v>
@@ -12994,8 +15075,8 @@
       <c r="N350" s="2"/>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A351" s="2">
-        <v>0.54861111111111105</v>
+      <c r="A351" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="B351">
         <v>78</v>
@@ -13030,8 +15111,8 @@
       <c r="N351" s="2"/>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A352" s="2">
-        <v>0.54999999999999993</v>
+      <c r="A352" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="B352">
         <v>78</v>
@@ -13066,8 +15147,8 @@
       <c r="N352" s="2"/>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A353" s="2">
-        <v>0.55069444444444449</v>
+      <c r="A353" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="B353">
         <v>81</v>
@@ -13102,8 +15183,8 @@
       <c r="N353" s="2"/>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A354" s="2">
-        <v>0.55208333333333337</v>
+      <c r="A354" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="B354">
         <v>79</v>
@@ -13138,8 +15219,8 @@
       <c r="N354" s="2"/>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A355" s="2">
-        <v>0.55277777777777781</v>
+      <c r="A355" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="B355">
         <v>79</v>
@@ -13174,8 +15255,8 @@
       <c r="N355" s="2"/>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A356" s="2">
-        <v>0.55347222222222225</v>
+      <c r="A356" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="B356">
         <v>91</v>
@@ -13210,8 +15291,8 @@
       <c r="N356" s="2"/>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A357" s="2">
-        <v>0.55486111111111114</v>
+      <c r="A357" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="B357">
         <v>94</v>
@@ -13246,8 +15327,8 @@
       <c r="N357" s="2"/>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A358" s="2">
-        <v>0.55555555555555558</v>
+      <c r="A358" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="B358">
         <v>92</v>
@@ -13282,8 +15363,8 @@
       <c r="N358" s="2"/>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A359" s="2">
-        <v>0.55694444444444446</v>
+      <c r="A359" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="B359">
         <v>94</v>
@@ -13318,8 +15399,8 @@
       <c r="N359" s="2"/>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A360" s="2">
-        <v>0.55833333333333335</v>
+      <c r="A360" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="B360">
         <v>92</v>
@@ -13354,8 +15435,8 @@
       <c r="N360" s="2"/>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A361" s="2">
-        <v>0.55972222222222223</v>
+      <c r="A361" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="B361">
         <v>92</v>
@@ -13390,8 +15471,8 @@
       <c r="N361" s="2"/>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A362" s="2">
-        <v>0.56041666666666667</v>
+      <c r="A362" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="B362">
         <v>94</v>
@@ -13426,8 +15507,8 @@
       <c r="N362" s="2"/>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A363" s="2">
-        <v>0.56180555555555556</v>
+      <c r="A363" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="B363">
         <v>92</v>
@@ -13462,8 +15543,8 @@
       <c r="N363" s="2"/>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A364" s="2">
-        <v>0.56319444444444444</v>
+      <c r="A364" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="B364">
         <v>92</v>
@@ -13498,8 +15579,8 @@
       <c r="N364" s="2"/>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A365" s="2">
-        <v>0.56388888888888888</v>
+      <c r="A365" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="B365">
         <v>96</v>
@@ -13534,8 +15615,8 @@
       <c r="N365" s="2"/>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A366" s="2">
-        <v>0.56527777777777777</v>
+      <c r="A366" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="B366">
         <v>111</v>
@@ -13570,8 +15651,8 @@
       <c r="N366" s="2"/>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A367" s="2">
-        <v>0.56666666666666665</v>
+      <c r="A367" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="B367">
         <v>109</v>
@@ -13606,8 +15687,8 @@
       <c r="N367" s="2"/>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A368" s="2">
-        <v>0.56736111111111109</v>
+      <c r="A368" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="B368">
         <v>109</v>
@@ -13642,8 +15723,8 @@
       <c r="N368" s="2"/>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A369" s="2">
-        <v>0.56805555555555554</v>
+      <c r="A369" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="B369">
         <v>109</v>
@@ -13678,8 +15759,8 @@
       <c r="N369" s="2"/>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A370" s="2">
-        <v>0.56944444444444442</v>
+      <c r="A370" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="B370">
         <v>109</v>
@@ -13714,8 +15795,8 @@
       <c r="N370" s="2"/>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A371" s="2">
-        <v>0.5708333333333333</v>
+      <c r="A371" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="B371">
         <v>109</v>
@@ -13750,8 +15831,8 @@
       <c r="N371" s="2"/>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A372" s="2">
-        <v>0.57152777777777775</v>
+      <c r="A372" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="B372">
         <v>111</v>
@@ -13786,8 +15867,8 @@
       <c r="N372" s="2"/>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A373" s="2">
-        <v>0.57291666666666663</v>
+      <c r="A373" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="B373">
         <v>109</v>
@@ -13822,8 +15903,8 @@
       <c r="N373" s="2"/>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A374" s="2">
-        <v>0.57430555555555551</v>
+      <c r="A374" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="B374">
         <v>111</v>
@@ -13858,8 +15939,8 @@
       <c r="N374" s="2"/>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A375" s="2">
-        <v>0.5756944444444444</v>
+      <c r="A375" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="B375">
         <v>114</v>
@@ -13894,8 +15975,8 @@
       <c r="N375" s="2"/>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A376" s="2">
-        <v>0.57638888888888895</v>
+      <c r="A376" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="B376">
         <v>119</v>
@@ -13930,8 +16011,8 @@
       <c r="N376" s="2"/>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A377" s="2">
-        <v>0.57777777777777783</v>
+      <c r="A377" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="B377">
         <v>120</v>
@@ -13966,8 +16047,8 @@
       <c r="N377" s="2"/>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A378" s="2">
-        <v>0.57916666666666672</v>
+      <c r="A378" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="B378">
         <v>122</v>
@@ -14002,8 +16083,8 @@
       <c r="N378" s="2"/>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A379" s="2">
-        <v>0.57986111111111105</v>
+      <c r="A379" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="B379">
         <v>120</v>
@@ -14038,8 +16119,8 @@
       <c r="N379" s="2"/>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A380" s="2">
-        <v>0.58194444444444449</v>
+      <c r="A380" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="B380">
         <v>124</v>
@@ -14074,8 +16155,8 @@
       <c r="N380" s="2"/>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A381" s="2">
-        <v>0.58263888888888882</v>
+      <c r="A381" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="B381">
         <v>120</v>
@@ -14110,8 +16191,8 @@
       <c r="N381" s="2"/>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A382" s="2">
-        <v>0.58472222222222225</v>
+      <c r="A382" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="B382">
         <v>124</v>
@@ -14146,8 +16227,8 @@
       <c r="N382" s="2"/>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A383" s="2">
-        <v>0.58611111111111114</v>
+      <c r="A383" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="B383">
         <v>142</v>
@@ -14182,8 +16263,8 @@
       <c r="N383" s="2"/>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A384" s="2">
-        <v>0.58750000000000002</v>
+      <c r="A384" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="B384">
         <v>145</v>
@@ -14218,8 +16299,8 @@
       <c r="N384" s="2"/>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A385" s="2">
-        <v>0.58888888888888891</v>
+      <c r="A385" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="B385">
         <v>142</v>
@@ -14254,8 +16335,8 @@
       <c r="N385" s="2"/>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A386" s="2">
-        <v>0.59027777777777779</v>
+      <c r="A386" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="B386">
         <v>142</v>
@@ -14290,8 +16371,8 @@
       <c r="N386" s="2"/>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A387" s="2">
-        <v>0.59166666666666667</v>
+      <c r="A387" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="B387">
         <v>145</v>
@@ -14326,8 +16407,8 @@
       <c r="N387" s="2"/>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A388" s="2">
-        <v>0.59305555555555556</v>
+      <c r="A388" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="B388">
         <v>142</v>
@@ -14362,8 +16443,8 @@
       <c r="N388" s="2"/>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A389" s="2">
-        <v>0.59444444444444444</v>
+      <c r="A389" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="B389">
         <v>145</v>
@@ -14398,8 +16479,8 @@
       <c r="N389" s="2"/>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A390" s="2">
-        <v>0.59513888888888888</v>
+      <c r="A390" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="B390">
         <v>142</v>
@@ -14434,8 +16515,8 @@
       <c r="N390" s="2"/>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A391" s="2">
-        <v>0.59652777777777777</v>
+      <c r="A391" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B391">
         <v>148</v>
@@ -14470,8 +16551,8 @@
       <c r="N391" s="2"/>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A392" s="2">
-        <v>0.59791666666666665</v>
+      <c r="A392" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="B392">
         <v>156</v>
@@ -14506,8 +16587,8 @@
       <c r="N392" s="2"/>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A393" s="2">
-        <v>0.59930555555555554</v>
+      <c r="A393" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="B393">
         <v>151</v>
@@ -14542,8 +16623,8 @@
       <c r="N393" s="2"/>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A394" s="2">
-        <v>0.6</v>
+      <c r="A394" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="B394">
         <v>151</v>
@@ -14578,8 +16659,8 @@
       <c r="N394" s="2"/>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A395" s="2">
-        <v>0.60138888888888886</v>
+      <c r="A395" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="B395">
         <v>156</v>
@@ -14614,8 +16695,8 @@
       <c r="N395" s="2"/>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A396" s="2">
-        <v>0.6020833333333333</v>
+      <c r="A396" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="B396">
         <v>151</v>
@@ -14650,8 +16731,8 @@
       <c r="N396" s="2"/>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A397" s="2">
-        <v>0.60347222222222219</v>
+      <c r="A397" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="B397">
         <v>151</v>
@@ -14686,8 +16767,8 @@
       <c r="N397" s="2"/>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A398" s="2">
-        <v>0.60416666666666663</v>
+      <c r="A398" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="B398">
         <v>156</v>
@@ -14722,8 +16803,8 @@
       <c r="N398" s="2"/>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A399" s="2">
-        <v>0.60555555555555551</v>
+      <c r="A399" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="B399">
         <v>151</v>
@@ -14758,8 +16839,8 @@
       <c r="N399" s="2"/>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A400" s="2">
-        <v>0.60625000000000007</v>
+      <c r="A400" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="B400">
         <v>153</v>
@@ -14794,8 +16875,8 @@
       <c r="N400" s="2"/>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A401" s="2">
-        <v>0.60763888888888895</v>
+      <c r="A401" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="B401">
         <v>153</v>
@@ -14830,8 +16911,8 @@
       <c r="N401" s="2"/>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A402" s="2">
-        <v>0.60833333333333328</v>
+      <c r="A402" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="B402">
         <v>162</v>
@@ -14866,8 +16947,8 @@
       <c r="N402" s="2"/>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A403" s="2">
-        <v>0.60972222222222217</v>
+      <c r="A403" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="B403">
         <v>159</v>
@@ -14902,8 +16983,8 @@
       <c r="N403" s="2"/>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A404" s="2">
-        <v>0.61041666666666672</v>
+      <c r="A404" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="B404">
         <v>159</v>
@@ -14938,8 +17019,8 @@
       <c r="N404" s="2"/>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A405" s="2">
-        <v>0.6118055555555556</v>
+      <c r="A405" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="B405">
         <v>159</v>
@@ -14974,8 +17055,8 @@
       <c r="N405" s="2"/>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A406" s="2">
-        <v>0.61319444444444449</v>
+      <c r="A406" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="B406">
         <v>159</v>
@@ -15010,8 +17091,8 @@
       <c r="N406" s="2"/>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A407" s="2">
-        <v>0.61458333333333337</v>
+      <c r="A407" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="B407">
         <v>162</v>
@@ -15046,8 +17127,8 @@
       <c r="N407" s="2"/>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A408" s="2">
-        <v>0.61527777777777781</v>
+      <c r="A408" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="B408">
         <v>159</v>
@@ -15082,8 +17163,8 @@
       <c r="N408" s="2"/>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A409" s="2">
-        <v>0.61597222222222225</v>
+      <c r="A409" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="B409">
         <v>162</v>
@@ -15118,8 +17199,8 @@
       <c r="N409" s="2"/>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A410" s="2">
-        <v>0.61736111111111114</v>
+      <c r="A410" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="B410">
         <v>164</v>
@@ -15154,8 +17235,8 @@
       <c r="N410" s="2"/>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A411" s="2">
-        <v>0.61875000000000002</v>
+      <c r="A411" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="B411">
         <v>173</v>
@@ -15190,8 +17271,8 @@
       <c r="N411" s="2"/>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A412" s="2">
-        <v>0.62013888888888891</v>
+      <c r="A412" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="B412">
         <v>176</v>
@@ -15226,8 +17307,8 @@
       <c r="N412" s="2"/>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A413" s="2">
-        <v>0.62083333333333335</v>
+      <c r="A413" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="B413">
         <v>173</v>
@@ -15262,8 +17343,8 @@
       <c r="N413" s="2"/>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A414" s="2">
-        <v>0.62222222222222223</v>
+      <c r="A414" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="B414">
         <v>176</v>
@@ -15298,8 +17379,8 @@
       <c r="N414" s="2"/>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A415" s="2">
-        <v>0.62291666666666667</v>
+      <c r="A415" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="B415">
         <v>179</v>
@@ -15334,8 +17415,8 @@
       <c r="N415" s="2"/>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A416" s="2">
-        <v>0.62430555555555556</v>
+      <c r="A416" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="B416">
         <v>173</v>
@@ -15370,8 +17451,8 @@
       <c r="N416" s="2"/>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A417" s="2">
-        <v>0.62569444444444444</v>
+      <c r="A417" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="B417">
         <v>176</v>
@@ -15406,8 +17487,8 @@
       <c r="N417" s="2"/>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A418" s="2">
-        <v>0.62638888888888888</v>
+      <c r="A418" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="B418">
         <v>176</v>
@@ -15442,8 +17523,8 @@
       <c r="N418" s="2"/>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A419" s="2">
-        <v>0.62777777777777777</v>
+      <c r="A419" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="B419">
         <v>173</v>
@@ -15478,8 +17559,8 @@
       <c r="N419" s="2"/>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A420" s="2">
-        <v>0.62916666666666665</v>
+      <c r="A420" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="B420">
         <v>187</v>
@@ -15514,8 +17595,8 @@
       <c r="N420" s="2"/>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A421" s="2">
-        <v>0.63055555555555554</v>
+      <c r="A421" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="B421">
         <v>189</v>
@@ -15550,8 +17631,8 @@
       <c r="N421" s="2"/>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A422" s="2">
-        <v>0.63124999999999998</v>
+      <c r="A422" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="B422">
         <v>189</v>
@@ -15586,8 +17667,8 @@
       <c r="N422" s="2"/>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A423" s="2">
-        <v>0.63194444444444442</v>
+      <c r="A423" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="B423">
         <v>193</v>
@@ -15622,8 +17703,8 @@
       <c r="N423" s="2"/>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A424" s="2">
-        <v>0.6333333333333333</v>
+      <c r="A424" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="B424">
         <v>196</v>
@@ -15658,8 +17739,8 @@
       <c r="N424" s="2"/>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A425" s="2">
-        <v>0.63402777777777775</v>
+      <c r="A425" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="B425">
         <v>189</v>
@@ -15694,8 +17775,8 @@
       <c r="N425" s="2"/>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A426" s="2">
-        <v>0.63472222222222219</v>
+      <c r="A426" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="B426">
         <v>196</v>
@@ -15730,8 +17811,8 @@
       <c r="N426" s="2"/>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A427" s="2">
-        <v>0.63611111111111118</v>
+      <c r="A427" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="B427">
         <v>193</v>
@@ -15766,8 +17847,8 @@
       <c r="N427" s="2"/>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A428" s="2">
-        <v>0.63750000000000007</v>
+      <c r="A428" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="B428">
         <v>189</v>
@@ -15802,8 +17883,8 @@
       <c r="N428" s="2"/>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A429" s="2">
-        <v>0.6381944444444444</v>
+      <c r="A429" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="B429">
         <v>193</v>
@@ -15838,8 +17919,8 @@
       <c r="N429" s="2"/>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A430" s="2">
-        <v>0.63888888888888895</v>
+      <c r="A430" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="B430">
         <v>196</v>
@@ -15874,8 +17955,8 @@
       <c r="N430" s="2"/>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A431" s="2">
-        <v>0.64027777777777783</v>
+      <c r="A431" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="B431">
         <v>193</v>
@@ -15910,8 +17991,8 @@
       <c r="N431" s="2"/>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A432" s="2">
-        <v>0.64166666666666672</v>
+      <c r="A432" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="B432">
         <v>203</v>
@@ -15946,8 +18027,8 @@
       <c r="N432" s="2"/>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A433" s="2">
-        <v>0.64236111111111105</v>
+      <c r="A433" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="B433">
         <v>207</v>
@@ -15982,8 +18063,8 @@
       <c r="N433" s="2"/>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A434" s="2">
-        <v>0.64374999999999993</v>
+      <c r="A434" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="B434">
         <v>203</v>
@@ -16018,8 +18099,8 @@
       <c r="N434" s="2"/>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A435" s="2">
-        <v>0.64444444444444449</v>
+      <c r="A435" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="B435">
         <v>203</v>
@@ -16054,8 +18135,8 @@
       <c r="N435" s="2"/>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A436" s="2">
-        <v>0.64583333333333337</v>
+      <c r="A436" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="B436">
         <v>207</v>
@@ -16090,8 +18171,8 @@
       <c r="N436" s="2"/>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A437" s="2">
-        <v>0.64652777777777781</v>
+      <c r="A437" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="B437">
         <v>207</v>
@@ -16126,8 +18207,8 @@
       <c r="N437" s="2"/>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A438" s="2">
-        <v>0.64861111111111114</v>
+      <c r="A438" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="B438">
         <v>210</v>
@@ -16162,8 +18243,8 @@
       <c r="N438" s="2"/>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A439" s="2">
-        <v>0.65</v>
+      <c r="A439" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="B439">
         <v>207</v>
@@ -16198,8 +18279,8 @@
       <c r="N439" s="2"/>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A440" s="2">
-        <v>0.65069444444444446</v>
+      <c r="A440" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="B440">
         <v>207</v>
@@ -16234,8 +18315,8 @@
       <c r="N440" s="2"/>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A441" s="2">
-        <v>0.65208333333333335</v>
+      <c r="A441" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="B441">
         <v>217</v>
@@ -16270,8 +18351,8 @@
       <c r="N441" s="2"/>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A442" s="2">
-        <v>0.65277777777777779</v>
+      <c r="A442" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="B442">
         <v>221</v>
@@ -16306,8 +18387,8 @@
       <c r="N442" s="2"/>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A443" s="2">
-        <v>0.65416666666666667</v>
+      <c r="A443" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="B443">
         <v>221</v>
@@ -16342,8 +18423,8 @@
       <c r="N443" s="2"/>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A444" s="2">
-        <v>0.65486111111111112</v>
+      <c r="A444" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="B444">
         <v>217</v>
@@ -16378,8 +18459,8 @@
       <c r="N444" s="2"/>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A445" s="2">
-        <v>0.65625</v>
+      <c r="A445" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="B445">
         <v>217</v>
@@ -16414,8 +18495,8 @@
       <c r="N445" s="2"/>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A446" s="2">
-        <v>0.65763888888888888</v>
+      <c r="A446" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="B446">
         <v>221</v>
@@ -16450,8 +18531,8 @@
       <c r="N446" s="2"/>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A447" s="2">
-        <v>0.65902777777777777</v>
+      <c r="A447" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="B447">
         <v>217</v>
@@ -16486,8 +18567,8 @@
       <c r="N447" s="2"/>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A448" s="2">
-        <v>0.65972222222222221</v>
+      <c r="A448" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="B448">
         <v>217</v>
@@ -16522,8 +18603,8 @@
       <c r="N448" s="2"/>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A449" s="2">
-        <v>0.66111111111111109</v>
+      <c r="A449" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="B449">
         <v>224</v>
@@ -16558,8 +18639,8 @@
       <c r="N449" s="2"/>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A450" s="2">
-        <v>0.66319444444444442</v>
+      <c r="A450" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="B450">
         <v>228</v>
@@ -16594,8 +18675,8 @@
       <c r="N450" s="2"/>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A451" s="2">
-        <v>0.66388888888888886</v>
+      <c r="A451" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="B451">
         <v>234</v>
@@ -16630,8 +18711,8 @@
       <c r="N451" s="2"/>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A452" s="2">
-        <v>0.66527777777777775</v>
+      <c r="A452" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="B452">
         <v>242</v>
@@ -16666,8 +18747,8 @@
       <c r="N452" s="2"/>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A453" s="2">
-        <v>0.66666666666666663</v>
+      <c r="A453" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="B453">
         <v>238</v>
@@ -16702,8 +18783,8 @@
       <c r="N453" s="2"/>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A454" s="2">
-        <v>0.66736111111111107</v>
+      <c r="A454" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="B454">
         <v>238</v>
@@ -16738,8 +18819,8 @@
       <c r="N454" s="2"/>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A455" s="2">
-        <v>0.66875000000000007</v>
+      <c r="A455" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="B455">
         <v>242</v>
@@ -16774,8 +18855,8 @@
       <c r="N455" s="2"/>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A456" s="2">
-        <v>0.67083333333333339</v>
+      <c r="A456" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="B456">
         <v>242</v>
@@ -16810,8 +18891,8 @@
       <c r="N456" s="2"/>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A457" s="2">
-        <v>0.67152777777777783</v>
+      <c r="A457" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="B457">
         <v>234</v>
@@ -16846,8 +18927,8 @@
       <c r="N457" s="2"/>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A458" s="2">
-        <v>0.67291666666666661</v>
+      <c r="A458" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="B458">
         <v>234</v>
@@ -16882,8 +18963,8 @@
       <c r="N458" s="2"/>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A459" s="2">
-        <v>0.67361111111111116</v>
+      <c r="A459" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="B459">
         <v>253</v>
@@ -16918,8 +18999,8 @@
       <c r="N459" s="2"/>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A460" s="2">
-        <v>0.67499999999999993</v>
+      <c r="A460" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="B460">
         <v>249</v>
@@ -16954,8 +19035,8 @@
       <c r="N460" s="2"/>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A461" s="2">
-        <v>0.67569444444444438</v>
+      <c r="A461" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="B461">
         <v>245</v>
@@ -16990,8 +19071,8 @@
       <c r="N461" s="2"/>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A462" s="2">
-        <v>0.67708333333333337</v>
+      <c r="A462" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="B462">
         <v>249</v>
@@ -17026,8 +19107,8 @@
       <c r="N462" s="2"/>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A463" s="2">
-        <v>0.67847222222222225</v>
+      <c r="A463" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="B463">
         <v>249</v>
@@ -17062,8 +19143,8 @@
       <c r="N463" s="2"/>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A464" s="2">
-        <v>0.6791666666666667</v>
+      <c r="A464" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="B464">
         <v>245</v>
@@ -17098,8 +19179,8 @@
       <c r="N464" s="2"/>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A465" s="2">
-        <v>0.68055555555555547</v>
+      <c r="A465" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="B465">
         <v>249</v>
@@ -17134,8 +19215,8 @@
       <c r="N465" s="2"/>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A466" s="2">
-        <v>0.68194444444444446</v>
+      <c r="A466" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="B466">
         <v>245</v>
@@ -17170,8 +19251,8 @@
       <c r="N466" s="2"/>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A467" s="2">
-        <v>0.68263888888888891</v>
+      <c r="A467" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="B467">
         <v>253</v>
@@ -17206,8 +19287,8 @@
       <c r="N467" s="2"/>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A468" s="2">
-        <v>0.68333333333333324</v>
+      <c r="A468" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="B468">
         <v>245</v>
@@ -17242,8 +19323,8 @@
       <c r="N468" s="2"/>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A469" s="2">
-        <v>0.68472222222222223</v>
+      <c r="A469" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="B469">
         <v>261</v>
@@ -17278,8 +19359,8 @@
       <c r="N469" s="2"/>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A470" s="2">
-        <v>0.68541666666666667</v>
+      <c r="A470" s="3" t="s">
+        <v>486</v>
       </c>
       <c r="B470">
         <v>266</v>
@@ -17314,8 +19395,8 @@
       <c r="N470" s="2"/>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A471" s="2">
-        <v>0.68680555555555556</v>
+      <c r="A471" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="B471">
         <v>270</v>
@@ -17350,8 +19431,8 @@
       <c r="N471" s="2"/>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A472" s="2">
-        <v>0.6875</v>
+      <c r="A472" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="B472">
         <v>270</v>
@@ -17386,8 +19467,8 @@
       <c r="N472" s="2"/>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A473" s="2">
-        <v>0.68819444444444444</v>
+      <c r="A473" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="B473">
         <v>261</v>
@@ -17422,8 +19503,8 @@
       <c r="N473" s="2"/>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A474" s="2">
-        <v>0.68958333333333333</v>
+      <c r="A474" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="B474">
         <v>261</v>
@@ -17458,8 +19539,8 @@
       <c r="N474" s="2"/>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A475" s="2">
-        <v>0.69027777777777777</v>
+      <c r="A475" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="B475">
         <v>266</v>
@@ -17494,8 +19575,8 @@
       <c r="N475" s="2"/>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A476" s="2">
-        <v>0.69166666666666676</v>
+      <c r="A476" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="B476">
         <v>270</v>
@@ -17530,8 +19611,8 @@
       <c r="N476" s="2"/>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A477" s="2">
-        <v>0.69236111111111109</v>
+      <c r="A477" s="3" t="s">
+        <v>493</v>
       </c>
       <c r="B477">
         <v>266</v>
@@ -17566,8 +19647,8 @@
       <c r="N477" s="2"/>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A478" s="2">
-        <v>0.69374999999999998</v>
+      <c r="A478" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="B478">
         <v>261</v>
@@ -17602,8 +19683,8 @@
       <c r="N478" s="2"/>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A479" s="2">
-        <v>0.69513888888888886</v>
+      <c r="A479" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="B479">
         <v>277</v>
@@ -17638,8 +19719,8 @@
       <c r="N479" s="2"/>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A480" s="2">
-        <v>0.6958333333333333</v>
+      <c r="A480" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="B480">
         <v>280</v>
@@ -17674,8 +19755,8 @@
       <c r="N480" s="2"/>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A481" s="2">
-        <v>0.6972222222222223</v>
+      <c r="A481" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="B481">
         <v>275</v>
@@ -17710,8 +19791,8 @@
       <c r="N481" s="2"/>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A482" s="2">
-        <v>0.69791666666666663</v>
+      <c r="A482" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="B482">
         <v>275</v>
@@ -17746,8 +19827,8 @@
       <c r="N482" s="2"/>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A483" s="2">
-        <v>0.69861111111111107</v>
+      <c r="A483" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="B483">
         <v>280</v>
@@ -17782,8 +19863,8 @@
       <c r="N483" s="2"/>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A484" s="2">
-        <v>0.70000000000000007</v>
+      <c r="A484" s="3" t="s">
+        <v>500</v>
       </c>
       <c r="B484">
         <v>284</v>
@@ -17818,8 +19899,8 @@
       <c r="N484" s="2"/>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A485" s="2">
-        <v>0.7006944444444444</v>
+      <c r="A485" s="3" t="s">
+        <v>501</v>
       </c>
       <c r="B485">
         <v>275</v>
@@ -17854,8 +19935,8 @@
       <c r="N485" s="2"/>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A486" s="2">
-        <v>0.70208333333333339</v>
+      <c r="A486" s="3" t="s">
+        <v>502</v>
       </c>
       <c r="B486">
         <v>275</v>
@@ -17890,8 +19971,8 @@
       <c r="N486" s="2"/>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A487" s="2">
-        <v>0.70347222222222217</v>
+      <c r="A487" s="3" t="s">
+        <v>503</v>
       </c>
       <c r="B487">
         <v>284</v>
@@ -17926,8 +20007,8 @@
       <c r="N487" s="2"/>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A488" s="2">
-        <v>0.70416666666666661</v>
+      <c r="A488" s="3" t="s">
+        <v>504</v>
       </c>
       <c r="B488">
         <v>280</v>
@@ -17962,8 +20043,8 @@
       <c r="N488" s="2"/>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A489" s="2">
-        <v>0.7055555555555556</v>
+      <c r="A489" s="3" t="s">
+        <v>505</v>
       </c>
       <c r="B489">
         <v>281</v>
@@ -17998,8 +20079,8 @@
       <c r="N489" s="2"/>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A490" s="2">
-        <v>0.70624999999999993</v>
+      <c r="A490" s="3" t="s">
+        <v>506</v>
       </c>
       <c r="B490">
         <v>286</v>
@@ -18034,8 +20115,8 @@
       <c r="N490" s="2"/>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A491" s="2">
-        <v>0.70763888888888893</v>
+      <c r="A491" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="B491">
         <v>296</v>
@@ -18070,8 +20151,8 @@
       <c r="N491" s="2"/>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A492" s="2">
-        <v>0.70833333333333337</v>
+      <c r="A492" s="3" t="s">
+        <v>508</v>
       </c>
       <c r="B492">
         <v>296</v>
@@ -18106,8 +20187,8 @@
       <c r="N492" s="2"/>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A493" s="2">
-        <v>0.70972222222222225</v>
+      <c r="A493" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="B493">
         <v>286</v>
@@ -18142,8 +20223,8 @@
       <c r="N493" s="2"/>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A494" s="2">
-        <v>0.7104166666666667</v>
+      <c r="A494" s="3" t="s">
+        <v>510</v>
       </c>
       <c r="B494">
         <v>291</v>
@@ -18178,8 +20259,8 @@
       <c r="N494" s="2"/>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A495" s="2">
-        <v>0.71111111111111114</v>
+      <c r="A495" s="3" t="s">
+        <v>511</v>
       </c>
       <c r="B495">
         <v>291</v>
@@ -18214,8 +20295,8 @@
       <c r="N495" s="2"/>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A496" s="2">
-        <v>0.71250000000000002</v>
+      <c r="A496" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="B496">
         <v>291</v>
@@ -18250,8 +20331,8 @@
       <c r="N496" s="2"/>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A497" s="2">
-        <v>0.71319444444444446</v>
+      <c r="A497" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="B497">
         <v>286</v>
@@ -18286,8 +20367,8 @@
       <c r="N497" s="2"/>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A498" s="2">
-        <v>0.71458333333333324</v>
+      <c r="A498" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="B498">
         <v>291</v>
@@ -18322,8 +20403,8 @@
       <c r="N498" s="2"/>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A499" s="2">
-        <v>0.71527777777777779</v>
+      <c r="A499" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="B499">
         <v>296</v>
@@ -18358,8 +20439,8 @@
       <c r="N499" s="2"/>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A500" s="2">
-        <v>0.71666666666666667</v>
+      <c r="A500" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="B500">
         <v>286</v>
@@ -18394,8 +20475,8 @@
       <c r="N500" s="2"/>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A501" s="2">
-        <v>0.71805555555555556</v>
+      <c r="A501" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="B501">
         <v>304</v>
@@ -18430,8 +20511,8 @@
       <c r="N501" s="2"/>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A502" s="2">
-        <v>0.71875</v>
+      <c r="A502" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B502">
         <v>302</v>
@@ -18466,8 +20547,8 @@
       <c r="N502" s="2"/>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A503" s="2">
-        <v>0.71944444444444444</v>
+      <c r="A503" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="B503">
         <v>297</v>
@@ -18502,8 +20583,8 @@
       <c r="N503" s="2"/>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A504" s="2">
-        <v>0.72013888888888899</v>
+      <c r="A504" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="B504">
         <v>297</v>
@@ -18538,8 +20619,8 @@
       <c r="N504" s="2"/>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A505" s="2">
-        <v>0.72152777777777777</v>
+      <c r="A505" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="B505">
         <v>302</v>
@@ -18574,8 +20655,8 @@
       <c r="N505" s="2"/>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A506" s="2">
-        <v>0.72291666666666676</v>
+      <c r="A506" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="B506">
         <v>307</v>
@@ -18610,8 +20691,8 @@
       <c r="N506" s="2"/>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A507" s="2">
-        <v>0.72361111111111109</v>
+      <c r="A507" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="B507">
         <v>300</v>
@@ -18646,8 +20727,8 @@
       <c r="N507" s="2"/>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A508" s="2">
-        <v>0.72499999999999998</v>
+      <c r="A508" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="B508">
         <v>305</v>
@@ -18682,8 +20763,8 @@
       <c r="N508" s="2"/>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A509" s="2">
-        <v>0.72638888888888886</v>
+      <c r="A509" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B509">
         <v>305</v>
@@ -18718,8 +20799,8 @@
       <c r="N509" s="2"/>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A510" s="2">
-        <v>0.7270833333333333</v>
+      <c r="A510" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="B510">
         <v>303</v>
@@ -18754,8 +20835,8 @@
       <c r="N510" s="2"/>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A511" s="2">
-        <v>0.7284722222222223</v>
+      <c r="A511" s="3" t="s">
+        <v>527</v>
       </c>
       <c r="B511">
         <v>311</v>
@@ -18790,8 +20871,8 @@
       <c r="N511" s="2"/>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A512" s="2">
-        <v>0.72916666666666663</v>
+      <c r="A512" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="B512">
         <v>319</v>
@@ -18826,8 +20907,8 @@
       <c r="N512" s="2"/>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A513" s="2">
-        <v>0.73055555555555562</v>
+      <c r="A513" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="B513">
         <v>314</v>
@@ -18862,8 +20943,8 @@
       <c r="N513" s="2"/>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A514" s="2">
-        <v>0.73125000000000007</v>
+      <c r="A514" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="B514">
         <v>314</v>
@@ -18898,8 +20979,8 @@
       <c r="N514" s="2"/>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A515" s="2">
-        <v>0.73263888888888884</v>
+      <c r="A515" s="3" t="s">
+        <v>531</v>
       </c>
       <c r="B515">
         <v>324</v>
@@ -18934,8 +21015,8 @@
       <c r="N515" s="2"/>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A516" s="2">
-        <v>0.73402777777777783</v>
+      <c r="A516" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="B516">
         <v>324</v>
@@ -18970,8 +21051,8 @@
       <c r="N516" s="2"/>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A517" s="2">
-        <v>0.73472222222222217</v>
+      <c r="A517" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="B517">
         <v>319</v>
@@ -19006,8 +21087,8 @@
       <c r="N517" s="2"/>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A518" s="2">
-        <v>0.73541666666666661</v>
+      <c r="A518" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="B518">
         <v>314</v>
@@ -19042,8 +21123,8 @@
       <c r="N518" s="2"/>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A519" s="2">
-        <v>0.7368055555555556</v>
+      <c r="A519" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="B519">
         <v>314</v>
@@ -19078,8 +21159,8 @@
       <c r="N519" s="2"/>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A520" s="2">
-        <v>0.73749999999999993</v>
+      <c r="A520" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="B520">
         <v>319</v>
@@ -19114,8 +21195,8 @@
       <c r="N520" s="2"/>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A521" s="2">
-        <v>0.73888888888888893</v>
+      <c r="A521" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="B521">
         <v>327</v>
@@ -19150,8 +21231,8 @@
       <c r="N521" s="2"/>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A522" s="2">
-        <v>0.7402777777777777</v>
+      <c r="A522" s="3" t="s">
+        <v>538</v>
       </c>
       <c r="B522">
         <v>333</v>
@@ -19186,8 +21267,8 @@
       <c r="N522" s="2"/>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A523" s="2">
-        <v>0.7416666666666667</v>
+      <c r="A523" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="B523">
         <v>338</v>
@@ -19222,8 +21303,8 @@
       <c r="N523" s="2"/>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A524" s="2">
-        <v>0.74236111111111114</v>
+      <c r="A524" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="B524">
         <v>327</v>
@@ -19258,8 +21339,8 @@
       <c r="N524" s="2"/>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A525" s="2">
-        <v>0.74375000000000002</v>
+      <c r="A525" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="B525">
         <v>333</v>
@@ -19294,8 +21375,8 @@
       <c r="N525" s="2"/>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A526" s="2">
-        <v>0.74513888888888891</v>
+      <c r="A526" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="B526">
         <v>333</v>
@@ -19330,8 +21411,8 @@
       <c r="N526" s="2"/>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A527" s="2">
-        <v>0.74583333333333324</v>
+      <c r="A527" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="B527">
         <v>333</v>
@@ -19366,8 +21447,8 @@
       <c r="N527" s="2"/>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A528" s="2">
-        <v>0.74652777777777779</v>
+      <c r="A528" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="B528">
         <v>327</v>
@@ -19402,8 +21483,8 @@
       <c r="N528" s="2"/>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A529" s="2">
-        <v>0.74791666666666667</v>
+      <c r="A529" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="B529">
         <v>333</v>
@@ -19438,8 +21519,8 @@
       <c r="N529" s="2"/>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A530" s="2">
-        <v>0.74861111111111101</v>
+      <c r="A530" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B530">
         <v>355</v>
@@ -19474,8 +21555,8 @@
       <c r="N530" s="2"/>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A531" s="2">
-        <v>0.74930555555555556</v>
+      <c r="A531" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="B531">
         <v>346</v>
@@ -19510,8 +21591,8 @@
       <c r="N531" s="2"/>
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A532" s="2">
-        <v>0.75</v>
+      <c r="A532" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="B532">
         <v>346</v>
@@ -19546,8 +21627,8 @@
       <c r="N532" s="2"/>
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A533" s="2">
-        <v>0.75138888888888899</v>
+      <c r="A533" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="B533">
         <v>346</v>
@@ -19582,8 +21663,8 @@
       <c r="N533" s="2"/>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A534" s="2">
-        <v>0.75208333333333333</v>
+      <c r="A534" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="B534">
         <v>358</v>
@@ -19618,8 +21699,8 @@
       <c r="N534" s="2"/>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A535" s="2">
-        <v>0.75347222222222221</v>
+      <c r="A535" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="B535">
         <v>346</v>
@@ -19654,8 +21735,8 @@
       <c r="N535" s="2"/>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A536" s="2">
-        <v>0.75416666666666676</v>
+      <c r="A536" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="B536">
         <v>346</v>
@@ -19690,8 +21771,8 @@
       <c r="N536" s="2"/>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A537" s="2">
-        <v>0.75555555555555554</v>
+      <c r="A537" s="3" t="s">
+        <v>553</v>
       </c>
       <c r="B537">
         <v>352</v>
@@ -19726,8 +21807,8 @@
       <c r="N537" s="2"/>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A538" s="2">
-        <v>0.75624999999999998</v>
+      <c r="A538" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="B538">
         <v>358</v>
@@ -19762,8 +21843,8 @@
       <c r="N538" s="2"/>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A539" s="2">
-        <v>0.75694444444444453</v>
+      <c r="A539" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="B539">
         <v>346</v>
@@ -19798,8 +21879,8 @@
       <c r="N539" s="2"/>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A540" s="2">
-        <v>0.7583333333333333</v>
+      <c r="A540" s="3" t="s">
+        <v>556</v>
       </c>
       <c r="B540">
         <v>346</v>
@@ -19834,8 +21915,8 @@
       <c r="N540" s="2"/>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A541" s="2">
-        <v>0.75902777777777775</v>
+      <c r="A541" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="B541">
         <v>352</v>
@@ -19870,8 +21951,8 @@
       <c r="N541" s="2"/>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A542" s="2">
-        <v>0.7597222222222223</v>
+      <c r="A542" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="B542">
         <v>358</v>
@@ -19906,8 +21987,8 @@
       <c r="N542" s="2"/>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A543" s="2">
-        <v>0.76111111111111107</v>
+      <c r="A543" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="B543">
         <v>361</v>
@@ -19942,8 +22023,8 @@
       <c r="N543" s="2"/>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A544" s="2">
-        <v>0.76180555555555562</v>
+      <c r="A544" s="3" t="s">
+        <v>560</v>
       </c>
       <c r="B544">
         <v>361</v>
@@ -19978,8 +22059,8 @@
       <c r="N544" s="2"/>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A545" s="2">
-        <v>0.76250000000000007</v>
+      <c r="A545" s="3" t="s">
+        <v>561</v>
       </c>
       <c r="B545">
         <v>361</v>
@@ -20014,8 +22095,8 @@
       <c r="N545" s="2"/>
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A546" s="2">
-        <v>0.7631944444444444</v>
+      <c r="A546" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="B546">
         <v>355</v>
@@ -20050,8 +22131,8 @@
       <c r="N546" s="2"/>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A547" s="2">
-        <v>0.76458333333333339</v>
+      <c r="A547" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="B547">
         <v>361</v>
@@ -20086,8 +22167,8 @@
       <c r="N547" s="2"/>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A548" s="2">
-        <v>0.76527777777777783</v>
+      <c r="A548" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="B548">
         <v>355</v>
@@ -20122,8 +22203,8 @@
       <c r="N548" s="2"/>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A549" s="2">
-        <v>0.76666666666666661</v>
+      <c r="A549" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="B549">
         <v>367</v>
@@ -20158,8 +22239,8 @@
       <c r="N549" s="2"/>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A550" s="2">
-        <v>0.76736111111111116</v>
+      <c r="A550" s="3" t="s">
+        <v>566</v>
       </c>
       <c r="B550">
         <v>355</v>
@@ -20194,8 +22275,8 @@
       <c r="N550" s="2"/>
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A551" s="2">
-        <v>0.76874999999999993</v>
+      <c r="A551" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="B551">
         <v>367</v>
@@ -20230,8 +22311,8 @@
       <c r="N551" s="2"/>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A552" s="2">
-        <v>0.76944444444444438</v>
+      <c r="A552" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="B552">
         <v>361</v>
@@ -20266,8 +22347,8 @@
       <c r="N552" s="2"/>
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A553" s="2">
-        <v>0.77013888888888893</v>
+      <c r="A553" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="B553">
         <v>368</v>
@@ -20302,8 +22383,8 @@
       <c r="N553" s="2"/>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A554" s="2">
-        <v>0.77083333333333337</v>
+      <c r="A554" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="B554">
         <v>377</v>
@@ -20338,8 +22419,8 @@
       <c r="N554" s="2"/>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A555" s="2">
-        <v>0.77222222222222225</v>
+      <c r="A555" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="B555">
         <v>383</v>
@@ -20374,8 +22455,8 @@
       <c r="N555" s="2"/>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A556" s="2">
-        <v>0.7729166666666667</v>
+      <c r="A556" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="B556">
         <v>377</v>
@@ -20410,8 +22491,8 @@
       <c r="N556" s="2"/>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A557" s="2">
-        <v>0.77361111111111114</v>
+      <c r="A557" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="B557">
         <v>371</v>
@@ -20446,8 +22527,8 @@
       <c r="N557" s="2"/>
     </row>
     <row r="558" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A558" s="2">
-        <v>0.77500000000000002</v>
+      <c r="A558" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="B558">
         <v>371</v>
@@ -20482,8 +22563,8 @@
       <c r="N558" s="2"/>
     </row>
     <row r="559" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A559" s="2">
-        <v>0.77569444444444446</v>
+      <c r="A559" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="B559">
         <v>377</v>
@@ -20518,8 +22599,8 @@
       <c r="N559" s="2"/>
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A560" s="2">
-        <v>0.77638888888888891</v>
+      <c r="A560" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="B560">
         <v>377</v>
@@ -20554,8 +22635,8 @@
       <c r="N560" s="2"/>
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A561" s="2">
-        <v>0.77708333333333324</v>
+      <c r="A561" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="B561">
         <v>383</v>
@@ -20590,8 +22671,8 @@
       <c r="N561" s="2"/>
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A562" s="2">
-        <v>0.77777777777777779</v>
+      <c r="A562" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="B562">
         <v>371</v>
@@ -20626,8 +22707,8 @@
       <c r="N562" s="2"/>
     </row>
     <row r="563" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A563" s="2">
-        <v>0.77847222222222223</v>
+      <c r="A563" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="B563">
         <v>371</v>
@@ -20662,8 +22743,8 @@
       <c r="N563" s="2"/>
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A564" s="2">
-        <v>0.77986111111111101</v>
+      <c r="A564" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="B564">
         <v>377</v>
@@ -20698,8 +22779,8 @@
       <c r="N564" s="2"/>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A565" s="2">
-        <v>0.78055555555555556</v>
+      <c r="A565" s="3" t="s">
+        <v>581</v>
       </c>
       <c r="B565">
         <v>383</v>
@@ -20734,8 +22815,8 @@
       <c r="N565" s="2"/>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A566" s="2">
-        <v>0.78125</v>
+      <c r="A566" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="B566">
         <v>374</v>
@@ -20770,8 +22851,8 @@
       <c r="N566" s="2"/>
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A567" s="2">
-        <v>0.78194444444444444</v>
+      <c r="A567" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="B567">
         <v>382</v>
@@ -20806,8 +22887,8 @@
       <c r="N567" s="2"/>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A568" s="2">
-        <v>0.78263888888888899</v>
+      <c r="A568" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="B568">
         <v>395</v>
@@ -20842,8 +22923,8 @@
       <c r="N568" s="2"/>
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A569" s="2">
-        <v>0.78402777777777777</v>
+      <c r="A569" s="3" t="s">
+        <v>585</v>
       </c>
       <c r="B569">
         <v>388</v>
@@ -20878,8 +22959,8 @@
       <c r="N569" s="2"/>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A570" s="2">
-        <v>0.78472222222222221</v>
+      <c r="A570" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="B570">
         <v>382</v>
@@ -20914,8 +22995,8 @@
       <c r="N570" s="2"/>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A571" s="2">
-        <v>0.78541666666666676</v>
+      <c r="A571" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="B571">
         <v>382</v>
@@ -20950,8 +23031,8 @@
       <c r="N571" s="2"/>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A572" s="2">
-        <v>0.78680555555555554</v>
+      <c r="A572" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="B572">
         <v>382</v>
@@ -20986,8 +23067,8 @@
       <c r="N572" s="2"/>
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A573" s="2">
-        <v>0.78749999999999998</v>
+      <c r="A573" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="B573">
         <v>388</v>
@@ -21022,8 +23103,8 @@
       <c r="N573" s="2"/>
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A574" s="2">
-        <v>0.78819444444444453</v>
+      <c r="A574" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="B574">
         <v>395</v>
@@ -21058,8 +23139,8 @@
       <c r="N574" s="2"/>
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A575" s="2">
-        <v>0.78888888888888886</v>
+      <c r="A575" s="3" t="s">
+        <v>591</v>
       </c>
       <c r="B575">
         <v>382</v>
@@ -21094,8 +23175,8 @@
       <c r="N575" s="2"/>
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A576" s="2">
-        <v>0.7895833333333333</v>
+      <c r="A576" s="3" t="s">
+        <v>592</v>
       </c>
       <c r="B576">
         <v>382</v>
@@ -21130,8 +23211,8 @@
       <c r="N576" s="2"/>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A577" s="2">
-        <v>0.79027777777777775</v>
+      <c r="A577" s="3" t="s">
+        <v>593</v>
       </c>
       <c r="B577">
         <v>388</v>
@@ -21166,8 +23247,8 @@
       <c r="N577" s="2"/>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A578" s="2">
-        <v>0.79166666666666663</v>
+      <c r="A578" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="B578">
         <v>395</v>
@@ -21202,8 +23283,8 @@
       <c r="N578" s="2"/>
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A579" s="2">
-        <v>0.79236111111111107</v>
+      <c r="A579" s="3" t="s">
+        <v>595</v>
       </c>
       <c r="B579">
         <v>393</v>
@@ -21238,8 +23319,8 @@
       <c r="N579" s="2"/>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A580" s="2">
-        <v>0.79305555555555562</v>
+      <c r="A580" s="3" t="s">
+        <v>596</v>
       </c>
       <c r="B580">
         <v>398</v>
@@ -21274,8 +23355,8 @@
       <c r="N580" s="2"/>
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A581" s="2">
-        <v>0.79375000000000007</v>
+      <c r="A581" s="3" t="s">
+        <v>597</v>
       </c>
       <c r="B581">
         <v>414</v>
@@ -21310,8 +23391,8 @@
       <c r="N581" s="2"/>
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A582" s="2">
-        <v>0.7944444444444444</v>
+      <c r="A582" s="3" t="s">
+        <v>598</v>
       </c>
       <c r="B582">
         <v>401</v>
@@ -21346,8 +23427,8 @@
       <c r="N582" s="2"/>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A583" s="2">
-        <v>0.79583333333333339</v>
+      <c r="A583" s="3" t="s">
+        <v>599</v>
       </c>
       <c r="B583">
         <v>401</v>
@@ -21382,8 +23463,8 @@
       <c r="N583" s="2"/>
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A584" s="2">
-        <v>0.79652777777777783</v>
+      <c r="A584" s="3" t="s">
+        <v>600</v>
       </c>
       <c r="B584">
         <v>407</v>
@@ -21418,8 +23499,8 @@
       <c r="N584" s="2"/>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A585" s="2">
-        <v>0.79722222222222217</v>
+      <c r="A585" s="3" t="s">
+        <v>601</v>
       </c>
       <c r="B585">
         <v>414</v>
@@ -21454,8 +23535,8 @@
       <c r="N585" s="2"/>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A586" s="2">
-        <v>0.79861111111111116</v>
+      <c r="A586" s="3" t="s">
+        <v>602</v>
       </c>
       <c r="B586">
         <v>414</v>
@@ -21490,8 +23571,8 @@
       <c r="N586" s="2"/>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A587" s="2">
-        <v>0.7993055555555556</v>
+      <c r="A587" s="3" t="s">
+        <v>603</v>
       </c>
       <c r="B587">
         <v>401</v>
@@ -21526,8 +23607,8 @@
       <c r="N587" s="2"/>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A588" s="2">
-        <v>0.79999999999999993</v>
+      <c r="A588" s="3" t="s">
+        <v>604</v>
       </c>
       <c r="B588">
         <v>407</v>
@@ -21562,8 +23643,8 @@
       <c r="N588" s="2"/>
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A589" s="2">
-        <v>0.80138888888888893</v>
+      <c r="A589" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="B589">
         <v>414</v>
@@ -21598,8 +23679,8 @@
       <c r="N589" s="2"/>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A590" s="2">
-        <v>0.80208333333333337</v>
+      <c r="A590" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="B590">
         <v>401</v>
@@ -21634,8 +23715,8 @@
       <c r="N590" s="2"/>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A591" s="2">
-        <v>0.8027777777777777</v>
+      <c r="A591" s="3" t="s">
+        <v>607</v>
       </c>
       <c r="B591">
         <v>401</v>
@@ -21670,8 +23751,8 @@
       <c r="N591" s="2"/>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A592" s="2">
-        <v>0.80347222222222225</v>
+      <c r="A592" s="3" t="s">
+        <v>608</v>
       </c>
       <c r="B592">
         <v>407</v>
@@ -21706,8 +23787,8 @@
       <c r="N592" s="2"/>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A593" s="2">
-        <v>0.8041666666666667</v>
+      <c r="A593" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="B593">
         <v>423</v>
@@ -21742,8 +23823,8 @@
       <c r="N593" s="2"/>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A594" s="2">
-        <v>0.80486111111111114</v>
+      <c r="A594" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="B594">
         <v>412</v>
@@ -21778,8 +23859,8 @@
       <c r="N594" s="2"/>
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A595" s="2">
-        <v>0.80625000000000002</v>
+      <c r="A595" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="B595">
         <v>412</v>
@@ -21814,8 +23895,8 @@
       <c r="N595" s="2"/>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A596" s="2">
-        <v>0.80694444444444446</v>
+      <c r="A596" s="3" t="s">
+        <v>612</v>
       </c>
       <c r="B596">
         <v>418</v>
@@ -21850,8 +23931,8 @@
       <c r="N596" s="2"/>
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A597" s="2">
-        <v>0.80763888888888891</v>
+      <c r="A597" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="B597">
         <v>418</v>
@@ -21886,8 +23967,8 @@
       <c r="N597" s="2"/>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A598" s="2">
-        <v>0.80833333333333324</v>
+      <c r="A598" s="3" t="s">
+        <v>614</v>
       </c>
       <c r="B598">
         <v>418</v>
@@ -21922,8 +24003,8 @@
       <c r="N598" s="2"/>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A599" s="2">
-        <v>0.80902777777777779</v>
+      <c r="A599" s="3" t="s">
+        <v>615</v>
       </c>
       <c r="B599">
         <v>425</v>
@@ -21958,8 +24039,8 @@
       <c r="N599" s="2"/>
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A600" s="2">
-        <v>0.80972222222222223</v>
+      <c r="A600" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="B600">
         <v>412</v>
@@ -21994,8 +24075,8 @@
       <c r="N600" s="2"/>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A601" s="2">
-        <v>0.81041666666666667</v>
+      <c r="A601" s="3" t="s">
+        <v>617</v>
       </c>
       <c r="B601">
         <v>412</v>
@@ -22030,8 +24111,8 @@
       <c r="N601" s="2"/>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A602" s="2">
-        <v>0.81180555555555556</v>
+      <c r="A602" s="3" t="s">
+        <v>618</v>
       </c>
       <c r="B602">
         <v>425</v>
@@ -22066,8 +24147,8 @@
       <c r="N602" s="2"/>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A603" s="2">
-        <v>0.8125</v>
+      <c r="A603" s="3" t="s">
+        <v>619</v>
       </c>
       <c r="B603">
         <v>418</v>
@@ -22102,8 +24183,8 @@
       <c r="N603" s="2"/>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A604" s="2">
-        <v>0.81319444444444444</v>
+      <c r="A604" s="3" t="s">
+        <v>620</v>
       </c>
       <c r="B604">
         <v>412</v>
@@ -22138,8 +24219,8 @@
       <c r="N604" s="2"/>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A605" s="2">
-        <v>0.81388888888888899</v>
+      <c r="A605" s="3" t="s">
+        <v>621</v>
       </c>
       <c r="B605">
         <v>418</v>
@@ -22174,8 +24255,8 @@
       <c r="N605" s="2"/>
     </row>
     <row r="606" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A606" s="2">
-        <v>0.81458333333333333</v>
+      <c r="A606" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="B606">
         <v>425</v>
@@ -22210,8 +24291,8 @@
       <c r="N606" s="2"/>
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A607" s="2">
-        <v>0.81527777777777777</v>
+      <c r="A607" s="3" t="s">
+        <v>623</v>
       </c>
       <c r="B607">
         <v>429</v>
@@ -22246,8 +24327,8 @@
       <c r="N607" s="2"/>
     </row>
     <row r="608" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A608" s="2">
-        <v>0.81597222222222221</v>
+      <c r="A608" s="3" t="s">
+        <v>624</v>
       </c>
       <c r="B608">
         <v>422</v>
@@ -22282,8 +24363,8 @@
       <c r="N608" s="2"/>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A609" s="2">
-        <v>0.81666666666666676</v>
+      <c r="A609" s="3" t="s">
+        <v>625</v>
       </c>
       <c r="B609">
         <v>429</v>
@@ -22318,8 +24399,8 @@
       <c r="N609" s="2"/>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A610" s="2">
-        <v>0.81736111111111109</v>
+      <c r="A610" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="B610">
         <v>439</v>
@@ -22354,8 +24435,8 @@
       <c r="N610" s="2"/>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A611" s="2">
-        <v>0.81805555555555554</v>
+      <c r="A611" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="B611">
         <v>439</v>
@@ -22390,8 +24471,8 @@
       <c r="N611" s="2"/>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A612" s="2">
-        <v>0.81944444444444453</v>
+      <c r="A612" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="B612">
         <v>439</v>
@@ -22426,8 +24507,8 @@
       <c r="N612" s="2"/>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A613" s="2">
-        <v>0.82013888888888886</v>
+      <c r="A613" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="B613">
         <v>432</v>
@@ -22462,8 +24543,8 @@
       <c r="N613" s="2"/>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A614" s="2">
-        <v>0.8208333333333333</v>
+      <c r="A614" s="3" t="s">
+        <v>630</v>
       </c>
       <c r="B614">
         <v>329</v>
@@ -22498,8 +24579,8 @@
       <c r="N614" s="2"/>
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A615" s="2">
-        <v>0.82152777777777775</v>
+      <c r="A615" s="3" t="s">
+        <v>631</v>
       </c>
       <c r="B615">
         <v>293</v>
@@ -22534,8 +24615,8 @@
       <c r="N615" s="2"/>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A616" s="2">
-        <v>0.82291666666666663</v>
+      <c r="A616" s="3" t="s">
+        <v>632</v>
       </c>
       <c r="B616">
         <v>114</v>
@@ -22570,8 +24651,8 @@
       <c r="N616" s="2"/>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A617" s="2">
-        <v>0.82361111111111107</v>
+      <c r="A617" s="3" t="s">
+        <v>633</v>
       </c>
       <c r="B617">
         <v>90</v>
@@ -22606,8 +24687,8 @@
       <c r="N617" s="2"/>
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A618" s="2">
-        <v>0.82430555555555562</v>
+      <c r="A618" s="3" t="s">
+        <v>634</v>
       </c>
       <c r="B618">
         <v>69</v>
@@ -22642,8 +24723,8 @@
       <c r="N618" s="2"/>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A619" s="2">
-        <v>0.82500000000000007</v>
+      <c r="A619" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="B619">
         <v>41</v>
@@ -22678,8 +24759,8 @@
       <c r="N619" s="2"/>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A620" s="2">
-        <v>0.82638888888888884</v>
+      <c r="A620" s="3" t="s">
+        <v>636</v>
       </c>
       <c r="B620">
         <v>14</v>
@@ -22714,8 +24795,8 @@
       <c r="N620" s="2"/>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A621" s="2">
-        <v>0.82708333333333339</v>
+      <c r="A621" s="3" t="s">
+        <v>637</v>
       </c>
       <c r="B621">
         <v>4</v>
@@ -22750,8 +24831,8 @@
       <c r="N621" s="2"/>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A622" s="2">
-        <v>0.82847222222222217</v>
+      <c r="A622" s="3" t="s">
+        <v>638</v>
       </c>
       <c r="B622">
         <v>3</v>
@@ -22786,8 +24867,8 @@
       <c r="N622" s="2"/>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A623" s="2">
-        <v>0.82916666666666661</v>
+      <c r="A623" s="3" t="s">
+        <v>639</v>
       </c>
       <c r="B623">
         <v>3</v>
@@ -22822,8 +24903,8 @@
       <c r="N623" s="2"/>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A624" s="2">
-        <v>0.82986111111111116</v>
+      <c r="A624" s="3" t="s">
+        <v>640</v>
       </c>
       <c r="B624">
         <v>3</v>
@@ -22858,8 +24939,8 @@
       <c r="N624" s="2"/>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A625" s="2">
-        <v>0.8305555555555556</v>
+      <c r="A625" s="3" t="s">
+        <v>641</v>
       </c>
       <c r="B625">
         <v>3</v>
@@ -22894,8 +24975,8 @@
       <c r="N625" s="2"/>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A626" s="2">
-        <v>0.83124999999999993</v>
+      <c r="A626" s="3" t="s">
+        <v>642</v>
       </c>
       <c r="B626">
         <v>3</v>
@@ -22930,8 +25011,8 @@
       <c r="N626" s="2"/>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A627" s="2">
-        <v>0.83263888888888893</v>
+      <c r="A627" s="3" t="s">
+        <v>643</v>
       </c>
       <c r="B627">
         <v>3</v>
@@ -22966,8 +25047,8 @@
       <c r="N627" s="2"/>
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A628" s="2">
-        <v>0.83333333333333337</v>
+      <c r="A628" s="3" t="s">
+        <v>644</v>
       </c>
       <c r="B628">
         <v>3</v>
@@ -23002,8 +25083,8 @@
       <c r="N628" s="2"/>
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A629" s="2">
-        <v>0.8340277777777777</v>
+      <c r="A629" s="3" t="s">
+        <v>645</v>
       </c>
       <c r="B629">
         <v>3</v>
@@ -23038,8 +25119,8 @@
       <c r="N629" s="2"/>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A630" s="2">
-        <v>0.83472222222222225</v>
+      <c r="A630" s="3" t="s">
+        <v>646</v>
       </c>
       <c r="B630">
         <v>3</v>
@@ -23074,8 +25155,8 @@
       <c r="N630" s="2"/>
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A631" s="2">
-        <v>0.83611111111111114</v>
+      <c r="A631" s="3" t="s">
+        <v>647</v>
       </c>
       <c r="B631">
         <v>3</v>
@@ -23110,8 +25191,8 @@
       <c r="N631" s="2"/>
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A632" s="2">
-        <v>0.83680555555555547</v>
+      <c r="A632" s="3" t="s">
+        <v>648</v>
       </c>
       <c r="B632">
         <v>3</v>
@@ -23146,8 +25227,8 @@
       <c r="N632" s="2"/>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A633" s="2">
-        <v>0.83750000000000002</v>
+      <c r="A633" s="3" t="s">
+        <v>649</v>
       </c>
       <c r="B633">
         <v>3</v>
@@ -23182,8 +25263,8 @@
       <c r="N633" s="2"/>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A634" s="2">
-        <v>0.83888888888888891</v>
+      <c r="A634" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="B634">
         <v>3</v>
@@ -23218,8 +25299,8 @@
       <c r="N634" s="2"/>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A635" s="2">
-        <v>0.83958333333333324</v>
+      <c r="A635" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="B635">
         <v>3</v>
@@ -23254,8 +25335,8 @@
       <c r="N635" s="2"/>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A636" s="2">
-        <v>0.84027777777777779</v>
+      <c r="A636" s="3" t="s">
+        <v>652</v>
       </c>
       <c r="B636">
         <v>3</v>
@@ -23290,8 +25371,8 @@
       <c r="N636" s="2"/>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A637" s="2">
-        <v>0.84166666666666667</v>
+      <c r="A637" s="3" t="s">
+        <v>653</v>
       </c>
       <c r="B637">
         <v>3</v>
@@ -23326,8 +25407,8 @@
       <c r="N637" s="2"/>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A638" s="2">
-        <v>0.84236111111111101</v>
+      <c r="A638" s="3" t="s">
+        <v>654</v>
       </c>
       <c r="B638">
         <v>3</v>
@@ -23362,8 +25443,8 @@
       <c r="N638" s="2"/>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A639" s="2">
-        <v>0.84305555555555556</v>
+      <c r="A639" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="B639">
         <v>3</v>
@@ -23398,8 +25479,8 @@
       <c r="N639" s="2"/>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A640" s="2">
-        <v>0.84444444444444444</v>
+      <c r="A640" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="B640">
         <v>3</v>
@@ -23434,8 +25515,8 @@
       <c r="N640" s="2"/>
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A641" s="2">
-        <v>0.84513888888888899</v>
+      <c r="A641" s="3" t="s">
+        <v>657</v>
       </c>
       <c r="B641">
         <v>3</v>
@@ -23470,8 +25551,8 @@
       <c r="N641" s="2"/>
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A642" s="2">
-        <v>0.84652777777777777</v>
+      <c r="A642" s="3" t="s">
+        <v>658</v>
       </c>
       <c r="B642">
         <v>3</v>
@@ -23506,8 +25587,8 @@
       <c r="N642" s="2"/>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A643" s="2">
-        <v>0.84722222222222221</v>
+      <c r="A643" s="3" t="s">
+        <v>659</v>
       </c>
       <c r="B643">
         <v>3</v>
@@ -23542,8 +25623,8 @@
       <c r="N643" s="2"/>
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A644" s="2">
-        <v>0.84791666666666676</v>
+      <c r="A644" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="B644">
         <v>3</v>
@@ -23578,8 +25659,8 @@
       <c r="N644" s="2"/>
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A645" s="2">
-        <v>0.84930555555555554</v>
+      <c r="A645" s="3" t="s">
+        <v>661</v>
       </c>
       <c r="B645">
         <v>3</v>
@@ -23614,8 +25695,8 @@
       <c r="N645" s="2"/>
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A646" s="2">
-        <v>0.85</v>
+      <c r="A646" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="B646">
         <v>3</v>
@@ -23650,8 +25731,8 @@
       <c r="N646" s="2"/>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A647" s="2">
-        <v>0.85138888888888886</v>
+      <c r="A647" s="3" t="s">
+        <v>663</v>
       </c>
       <c r="B647">
         <v>3</v>
@@ -23686,8 +25767,8 @@
       <c r="N647" s="2"/>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A648" s="2">
-        <v>0.8520833333333333</v>
+      <c r="A648" s="3" t="s">
+        <v>664</v>
       </c>
       <c r="B648">
         <v>3</v>
@@ -23722,8 +25803,8 @@
       <c r="N648" s="2"/>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A649" s="2">
-        <v>0.8534722222222223</v>
+      <c r="A649" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="B649">
         <v>3</v>
@@ -23758,8 +25839,8 @@
       <c r="N649" s="2"/>
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A650" s="2">
-        <v>0.85416666666666663</v>
+      <c r="A650" s="3" t="s">
+        <v>666</v>
       </c>
       <c r="B650">
         <v>3</v>
@@ -23794,8 +25875,8 @@
       <c r="N650" s="2"/>
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A651" s="2">
-        <v>0.85555555555555562</v>
+      <c r="A651" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="B651">
         <v>3</v>
@@ -23830,8 +25911,8 @@
       <c r="N651" s="2"/>
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A652" s="2">
-        <v>0.85625000000000007</v>
+      <c r="A652" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="B652">
         <v>3</v>
@@ -23866,8 +25947,8 @@
       <c r="N652" s="2"/>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A653" s="2">
-        <v>0.85763888888888884</v>
+      <c r="A653" s="3" t="s">
+        <v>669</v>
       </c>
       <c r="B653">
         <v>3</v>
@@ -23902,8 +25983,8 @@
       <c r="N653" s="2"/>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A654" s="2">
-        <v>0.85833333333333339</v>
+      <c r="A654" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="B654">
         <v>3</v>
@@ -23938,8 +26019,8 @@
       <c r="N654" s="2"/>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A655" s="2">
-        <v>0.85972222222222217</v>
+      <c r="A655" s="3" t="s">
+        <v>671</v>
       </c>
       <c r="B655">
         <v>3</v>
@@ -23974,8 +26055,8 @@
       <c r="N655" s="2"/>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A656" s="2">
-        <v>0.86041666666666661</v>
+      <c r="A656" s="3" t="s">
+        <v>672</v>
       </c>
       <c r="B656">
         <v>3</v>
@@ -24010,8 +26091,8 @@
       <c r="N656" s="2"/>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A657" s="2">
-        <v>0.8618055555555556</v>
+      <c r="A657" s="3" t="s">
+        <v>673</v>
       </c>
       <c r="B657">
         <v>3</v>
@@ -24046,8 +26127,8 @@
       <c r="N657" s="2"/>
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A658" s="2">
-        <v>0.86249999999999993</v>
+      <c r="A658" s="3" t="s">
+        <v>674</v>
       </c>
       <c r="B658">
         <v>3</v>
@@ -24082,8 +26163,8 @@
       <c r="N658" s="2"/>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A659" s="2">
-        <v>0.86319444444444438</v>
+      <c r="A659" s="3" t="s">
+        <v>675</v>
       </c>
       <c r="B659">
         <v>3</v>
@@ -24118,8 +26199,8 @@
       <c r="N659" s="2"/>
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A660" s="2">
-        <v>0.86458333333333337</v>
+      <c r="A660" s="3" t="s">
+        <v>676</v>
       </c>
       <c r="B660">
         <v>3</v>
@@ -24154,8 +26235,8 @@
       <c r="N660" s="2"/>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A661" s="2">
-        <v>0.8652777777777777</v>
+      <c r="A661" s="3" t="s">
+        <v>677</v>
       </c>
       <c r="B661">
         <v>3</v>
@@ -24190,8 +26271,8 @@
       <c r="N661" s="2"/>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A662" s="2">
-        <v>0.8666666666666667</v>
+      <c r="A662" s="3" t="s">
+        <v>678</v>
       </c>
       <c r="B662">
         <v>3</v>
@@ -24226,8 +26307,8 @@
       <c r="N662" s="2"/>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A663" s="2">
-        <v>0.86736111111111114</v>
+      <c r="A663" s="3" t="s">
+        <v>679</v>
       </c>
       <c r="B663">
         <v>3</v>
@@ -24262,8 +26343,8 @@
       <c r="N663" s="2"/>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A664" s="2">
-        <v>0.86875000000000002</v>
+      <c r="A664" s="3" t="s">
+        <v>680</v>
       </c>
       <c r="B664">
         <v>3</v>
@@ -24298,8 +26379,8 @@
       <c r="N664" s="2"/>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A665" s="2">
-        <v>0.87013888888888891</v>
+      <c r="A665" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="B665">
         <v>3</v>
@@ -24334,8 +26415,8 @@
       <c r="N665" s="2"/>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A666" s="2">
-        <v>0.87083333333333324</v>
+      <c r="A666" s="3" t="s">
+        <v>682</v>
       </c>
       <c r="B666">
         <v>3</v>
@@ -24370,8 +26451,8 @@
       <c r="N666" s="2"/>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A667" s="2">
-        <v>0.87222222222222223</v>
+      <c r="A667" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="B667">
         <v>3</v>
@@ -24406,8 +26487,8 @@
       <c r="N667" s="2"/>
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A668" s="2">
-        <v>0.87361111111111101</v>
+      <c r="A668" s="3" t="s">
+        <v>684</v>
       </c>
       <c r="B668">
         <v>3</v>
@@ -24442,8 +26523,8 @@
       <c r="N668" s="2"/>
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A669" s="2">
-        <v>0.87430555555555556</v>
+      <c r="A669" s="3" t="s">
+        <v>685</v>
       </c>
       <c r="B669">
         <v>3</v>
@@ -24478,8 +26559,8 @@
       <c r="N669" s="2"/>
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A670" s="2">
-        <v>0.87569444444444444</v>
+      <c r="A670" s="3" t="s">
+        <v>686</v>
       </c>
       <c r="B670">
         <v>3</v>
@@ -24514,8 +26595,8 @@
       <c r="N670" s="2"/>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A671" s="2">
-        <v>0.87638888888888899</v>
+      <c r="A671" s="3" t="s">
+        <v>687</v>
       </c>
       <c r="B671">
         <v>3</v>
@@ -24550,8 +26631,8 @@
       <c r="N671" s="2"/>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A672" s="2">
-        <v>0.87777777777777777</v>
+      <c r="A672" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="B672">
         <v>3</v>
@@ -24586,8 +26667,8 @@
       <c r="N672" s="2"/>
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A673" s="2">
-        <v>0.87916666666666676</v>
+      <c r="A673" s="3" t="s">
+        <v>689</v>
       </c>
       <c r="B673">
         <v>3</v>
@@ -24622,8 +26703,8 @@
       <c r="N673" s="2"/>
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A674" s="2">
-        <v>0.88055555555555554</v>
+      <c r="A674" s="3" t="s">
+        <v>690</v>
       </c>
       <c r="B674">
         <v>3</v>
@@ -24658,8 +26739,8 @@
       <c r="N674" s="2"/>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A675" s="2">
-        <v>0.88124999999999998</v>
+      <c r="A675" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="B675">
         <v>3</v>
@@ -24694,8 +26775,8 @@
       <c r="N675" s="2"/>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A676" s="2">
-        <v>0.88263888888888886</v>
+      <c r="A676" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -24730,8 +26811,8 @@
       <c r="N676" s="2"/>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A677" s="2">
-        <v>0.8833333333333333</v>
+      <c r="A677" s="3" t="s">
+        <v>693</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -24766,8 +26847,8 @@
       <c r="N677" s="2"/>
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A678" s="2">
-        <v>0.8847222222222223</v>
+      <c r="A678" s="3" t="s">
+        <v>694</v>
       </c>
       <c r="B678">
         <v>3</v>
@@ -24802,8 +26883,8 @@
       <c r="N678" s="2"/>
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A679" s="2">
-        <v>0.88541666666666663</v>
+      <c r="A679" s="3" t="s">
+        <v>695</v>
       </c>
       <c r="B679">
         <v>3</v>
@@ -24838,8 +26919,8 @@
       <c r="N679" s="2"/>
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A680" s="2">
-        <v>0.88680555555555562</v>
+      <c r="A680" s="3" t="s">
+        <v>696</v>
       </c>
       <c r="B680">
         <v>3</v>
@@ -24874,8 +26955,8 @@
       <c r="N680" s="2"/>
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A681" s="2">
-        <v>0.88750000000000007</v>
+      <c r="A681" s="3" t="s">
+        <v>697</v>
       </c>
       <c r="B681">
         <v>3</v>
@@ -24910,8 +26991,8 @@
       <c r="N681" s="2"/>
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A682" s="2">
-        <v>0.88888888888888884</v>
+      <c r="A682" s="3" t="s">
+        <v>698</v>
       </c>
       <c r="B682">
         <v>3</v>
@@ -24946,8 +27027,8 @@
       <c r="N682" s="2"/>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A683" s="2">
-        <v>0.89027777777777783</v>
+      <c r="A683" s="3" t="s">
+        <v>699</v>
       </c>
       <c r="B683">
         <v>3</v>
@@ -24982,8 +27063,8 @@
       <c r="N683" s="2"/>
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A684" s="2">
-        <v>0.89097222222222217</v>
+      <c r="A684" s="3" t="s">
+        <v>700</v>
       </c>
       <c r="B684">
         <v>3</v>
@@ -25018,8 +27099,8 @@
       <c r="N684" s="2"/>
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A685" s="2">
-        <v>0.89236111111111116</v>
+      <c r="A685" s="3" t="s">
+        <v>701</v>
       </c>
       <c r="B685">
         <v>3</v>
@@ -25054,8 +27135,8 @@
       <c r="N685" s="2"/>
     </row>
     <row r="686" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A686" s="2">
-        <v>0.89374999999999993</v>
+      <c r="A686" s="3" t="s">
+        <v>702</v>
       </c>
       <c r="B686">
         <v>3</v>
@@ -25090,8 +27171,8 @@
       <c r="N686" s="2"/>
     </row>
     <row r="687" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A687" s="2">
-        <v>0.89444444444444438</v>
+      <c r="A687" s="3" t="s">
+        <v>703</v>
       </c>
       <c r="B687">
         <v>3</v>
@@ -25126,8 +27207,8 @@
       <c r="N687" s="2"/>
     </row>
     <row r="688" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A688" s="2">
-        <v>0.89583333333333337</v>
+      <c r="A688" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="B688">
         <v>3</v>
@@ -25162,8 +27243,8 @@
       <c r="N688" s="2"/>
     </row>
     <row r="689" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A689" s="2">
-        <v>0.89722222222222225</v>
+      <c r="A689" s="3" t="s">
+        <v>705</v>
       </c>
       <c r="B689">
         <v>3</v>
@@ -25198,8 +27279,8 @@
       <c r="N689" s="2"/>
     </row>
     <row r="690" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A690" s="2">
-        <v>0.8979166666666667</v>
+      <c r="A690" s="3" t="s">
+        <v>706</v>
       </c>
       <c r="B690">
         <v>3</v>
@@ -25234,8 +27315,8 @@
       <c r="N690" s="2"/>
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A691" s="2">
-        <v>0.89930555555555547</v>
+      <c r="A691" s="3" t="s">
+        <v>707</v>
       </c>
       <c r="B691">
         <v>3</v>
@@ -25270,8 +27351,8 @@
       <c r="N691" s="2"/>
     </row>
     <row r="692" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A692" s="2">
-        <v>0.9</v>
+      <c r="A692" s="3" t="s">
+        <v>708</v>
       </c>
       <c r="B692">
         <v>3</v>
@@ -25306,8 +27387,8 @@
       <c r="N692" s="2"/>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A693" s="2">
-        <v>0.90138888888888891</v>
+      <c r="A693" s="3" t="s">
+        <v>709</v>
       </c>
       <c r="B693">
         <v>3</v>
@@ -25342,8 +27423,8 @@
       <c r="N693" s="2"/>
     </row>
     <row r="694" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A694" s="2">
-        <v>0.90277777777777779</v>
+      <c r="A694" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="B694">
         <v>3</v>
@@ -25378,8 +27459,8 @@
       <c r="N694" s="2"/>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A695" s="2">
-        <v>0.90902777777777777</v>
+      <c r="A695" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="B695">
         <v>2</v>
@@ -25414,8 +27495,8 @@
       <c r="N695" s="2"/>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A696" s="2">
-        <v>0.90972222222222221</v>
+      <c r="A696" s="3" t="s">
+        <v>712</v>
       </c>
       <c r="B696">
         <v>2</v>
